--- a/public/Plantillas/Reporte-Proyectos.xlsx
+++ b/public/Plantillas/Reporte-Proyectos.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\ESPE_2023\sistema_vinculacion\sistema_vinculacion\public\Plantillas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sebas\OneDrive\Escritorio\TesisVersionBeta\public\Plantillas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6B84519-1BB6-45D8-9130-D1031F1B7BC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6CD7DE0-E4C7-45D4-9601-4A1C6BB44511}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E868ECBF-1759-4E94-BEB5-846D8DEB5231}"/>
   </bookViews>
@@ -27,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,27 +34,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>N|</t>
   </si>
   <si>
     <t>Fecha Inicio</t>
-  </si>
-  <si>
-    <t>Reporte Proyectos Vinculacion a la sociedad</t>
-  </si>
-  <si>
-    <t>Nombre del Proyecto</t>
-  </si>
-  <si>
-    <t>Director</t>
-  </si>
-  <si>
-    <t>Docente Participante</t>
-  </si>
-  <si>
-    <t>Actividades</t>
   </si>
   <si>
     <t>Departamento</t>
@@ -67,12 +50,36 @@
   <si>
     <t>Estado del Proyecto</t>
   </si>
+  <si>
+    <t>REGISTRO DE ESTUDIANTES DE PRÁCTICAS PROPROFESIONALES DE SERVICIO COMUNITARIO</t>
+  </si>
+  <si>
+    <t>Nombre del Proyecto Social</t>
+  </si>
+  <si>
+    <t>Código del Proyecto Social</t>
+  </si>
+  <si>
+    <t>Director de Proyecto</t>
+  </si>
+  <si>
+    <t>Docente Colaborador</t>
+  </si>
+  <si>
+    <t>Periodo del Proyecto</t>
+  </si>
+  <si>
+    <t>NRC</t>
+  </si>
+  <si>
+    <t>Descripcion del Proyecto</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -92,13 +99,40 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -125,49 +159,50 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left/>
+      <right style="thin">
         <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      </right>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -185,133 +220,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>205740</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>160020</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>2385060</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>12374</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagen 1" descr="Imagen de consulta de la búsqueda visual">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9DC82C9-45B8-9094-6C4C-39E0D45CB500}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="205740" y="449580"/>
-          <a:ext cx="2971800" cy="766754"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>1375676</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>103318</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>418745</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>38099</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Imagen 2" descr="Computación Gráfica – Archivos Espe">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E508E97-75FD-C968-BB16-BFF5E73BB25F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="34655583" y="395713"/>
-          <a:ext cx="3420139" cy="865130"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -611,10 +519,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDE16FFB-0DBF-4542-BF2E-0694577CABAA}">
-  <dimension ref="A1:V9"/>
+  <dimension ref="A1:V328"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -627,123 +535,1070 @@
     <col min="7" max="7" width="30.6640625" customWidth="1"/>
     <col min="8" max="8" width="26.77734375" customWidth="1"/>
     <col min="9" max="9" width="41.109375" customWidth="1"/>
-    <col min="10" max="10" width="17.88671875" customWidth="1"/>
-    <col min="11" max="11" width="16.21875" customWidth="1"/>
-    <col min="12" max="12" width="17" customWidth="1"/>
+    <col min="10" max="10" width="30.77734375" customWidth="1"/>
+    <col min="11" max="11" width="31.33203125" customWidth="1"/>
+    <col min="12" max="12" width="25.77734375" customWidth="1"/>
     <col min="13" max="13" width="38.33203125" customWidth="1"/>
     <col min="14" max="14" width="25.44140625" customWidth="1"/>
     <col min="22" max="22" width="28.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="22.8" x14ac:dyDescent="0.4">
-      <c r="E1" s="3" t="s">
+      <c r="N1" s="6"/>
+    </row>
+    <row r="2" spans="1:22" ht="18" x14ac:dyDescent="0.3">
+      <c r="B2" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="8"/>
+    </row>
+    <row r="8" spans="1:22" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A8" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-    </row>
-    <row r="8" spans="1:22" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>0</v>
+      <c r="H8" s="12" t="s">
+        <v>10</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="I8" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="J8" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="K8" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="L8" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="7"/>
-      <c r="P8" s="7"/>
-      <c r="Q8" s="7"/>
-      <c r="R8" s="7"/>
-      <c r="S8" s="7"/>
-      <c r="T8" s="7"/>
-      <c r="U8" s="7"/>
-      <c r="V8" s="7"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="5"/>
+      <c r="T8" s="5"/>
+      <c r="U8" s="5"/>
+      <c r="V8" s="5"/>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="9"/>
-      <c r="O9" s="9"/>
-      <c r="P9" s="9"/>
-      <c r="Q9" s="9"/>
-      <c r="R9" s="9"/>
-      <c r="S9" s="9"/>
-      <c r="T9" s="9"/>
-      <c r="U9" s="9"/>
-      <c r="V9" s="9"/>
+      <c r="A9" s="1"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="4"/>
+      <c r="S9" s="4"/>
+      <c r="T9" s="4"/>
+      <c r="U9" s="4"/>
+      <c r="V9" s="4"/>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="D10" s="9"/>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="D11" s="9"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="D12" s="9"/>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="D13" s="9"/>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="D14" s="9"/>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="D15" s="9"/>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="D16" s="9"/>
+    </row>
+    <row r="17" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D17" s="9"/>
+    </row>
+    <row r="18" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D18" s="9"/>
+    </row>
+    <row r="19" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D19" s="9"/>
+    </row>
+    <row r="20" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D20" s="9"/>
+    </row>
+    <row r="21" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D21" s="9"/>
+    </row>
+    <row r="22" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D22" s="9"/>
+    </row>
+    <row r="23" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D23" s="9"/>
+    </row>
+    <row r="24" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D24" s="9"/>
+    </row>
+    <row r="25" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D25" s="9"/>
+    </row>
+    <row r="26" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D26" s="9"/>
+    </row>
+    <row r="27" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D27" s="9"/>
+    </row>
+    <row r="28" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D28" s="9"/>
+    </row>
+    <row r="29" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D29" s="9"/>
+    </row>
+    <row r="30" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D30" s="9"/>
+    </row>
+    <row r="31" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D31" s="9"/>
+    </row>
+    <row r="32" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D32" s="9"/>
+    </row>
+    <row r="33" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D33" s="9"/>
+    </row>
+    <row r="34" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D34" s="9"/>
+    </row>
+    <row r="35" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D35" s="9"/>
+    </row>
+    <row r="36" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D36" s="9"/>
+    </row>
+    <row r="37" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D37" s="9"/>
+    </row>
+    <row r="38" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D38" s="9"/>
+    </row>
+    <row r="39" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D39" s="9"/>
+    </row>
+    <row r="40" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D40" s="9"/>
+    </row>
+    <row r="41" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D41" s="9"/>
+    </row>
+    <row r="42" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D42" s="9"/>
+    </row>
+    <row r="43" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D43" s="9"/>
+    </row>
+    <row r="44" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D44" s="9"/>
+    </row>
+    <row r="45" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D45" s="9"/>
+    </row>
+    <row r="46" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D46" s="9"/>
+    </row>
+    <row r="47" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D47" s="9"/>
+    </row>
+    <row r="48" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D48" s="9"/>
+    </row>
+    <row r="49" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D49" s="9"/>
+    </row>
+    <row r="50" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D50" s="9"/>
+    </row>
+    <row r="51" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D51" s="9"/>
+    </row>
+    <row r="52" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D52" s="9"/>
+    </row>
+    <row r="53" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D53" s="9"/>
+    </row>
+    <row r="54" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D54" s="9"/>
+    </row>
+    <row r="55" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D55" s="9"/>
+    </row>
+    <row r="56" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D56" s="9"/>
+    </row>
+    <row r="57" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D57" s="9"/>
+    </row>
+    <row r="58" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D58" s="9"/>
+    </row>
+    <row r="59" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D59" s="9"/>
+    </row>
+    <row r="60" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D60" s="9"/>
+    </row>
+    <row r="61" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D61" s="9"/>
+    </row>
+    <row r="62" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D62" s="9"/>
+    </row>
+    <row r="63" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D63" s="9"/>
+    </row>
+    <row r="64" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D64" s="9"/>
+    </row>
+    <row r="65" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D65" s="9"/>
+    </row>
+    <row r="66" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D66" s="9"/>
+    </row>
+    <row r="67" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D67" s="9"/>
+    </row>
+    <row r="68" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D68" s="9"/>
+    </row>
+    <row r="69" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D69" s="9"/>
+    </row>
+    <row r="70" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D70" s="9"/>
+    </row>
+    <row r="71" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D71" s="9"/>
+    </row>
+    <row r="72" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D72" s="9"/>
+    </row>
+    <row r="73" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D73" s="9"/>
+    </row>
+    <row r="74" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D74" s="9"/>
+    </row>
+    <row r="75" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D75" s="9"/>
+    </row>
+    <row r="76" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D76" s="9"/>
+    </row>
+    <row r="77" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D77" s="9"/>
+    </row>
+    <row r="78" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D78" s="9"/>
+    </row>
+    <row r="79" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D79" s="9"/>
+    </row>
+    <row r="80" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D80" s="9"/>
+    </row>
+    <row r="81" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D81" s="9"/>
+    </row>
+    <row r="82" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D82" s="9"/>
+    </row>
+    <row r="83" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D83" s="9"/>
+    </row>
+    <row r="84" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D84" s="9"/>
+    </row>
+    <row r="85" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D85" s="9"/>
+    </row>
+    <row r="86" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D86" s="9"/>
+    </row>
+    <row r="87" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D87" s="9"/>
+    </row>
+    <row r="88" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D88" s="9"/>
+    </row>
+    <row r="89" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D89" s="9"/>
+    </row>
+    <row r="90" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D90" s="9"/>
+    </row>
+    <row r="91" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D91" s="9"/>
+    </row>
+    <row r="92" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D92" s="9"/>
+    </row>
+    <row r="93" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D93" s="9"/>
+    </row>
+    <row r="94" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D94" s="9"/>
+    </row>
+    <row r="95" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D95" s="9"/>
+    </row>
+    <row r="96" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D96" s="9"/>
+    </row>
+    <row r="97" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D97" s="9"/>
+    </row>
+    <row r="98" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D98" s="9"/>
+    </row>
+    <row r="99" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D99" s="9"/>
+    </row>
+    <row r="100" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D100" s="9"/>
+    </row>
+    <row r="101" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D101" s="9"/>
+    </row>
+    <row r="102" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D102" s="9"/>
+    </row>
+    <row r="103" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D103" s="9"/>
+    </row>
+    <row r="104" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D104" s="9"/>
+    </row>
+    <row r="105" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D105" s="9"/>
+    </row>
+    <row r="106" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D106" s="9"/>
+    </row>
+    <row r="107" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D107" s="9"/>
+    </row>
+    <row r="108" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D108" s="9"/>
+    </row>
+    <row r="109" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D109" s="9"/>
+    </row>
+    <row r="110" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D110" s="9"/>
+    </row>
+    <row r="111" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D111" s="9"/>
+    </row>
+    <row r="112" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D112" s="9"/>
+    </row>
+    <row r="113" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D113" s="9"/>
+    </row>
+    <row r="114" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D114" s="9"/>
+    </row>
+    <row r="115" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D115" s="9"/>
+    </row>
+    <row r="116" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D116" s="9"/>
+    </row>
+    <row r="117" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D117" s="9"/>
+    </row>
+    <row r="118" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D118" s="9"/>
+    </row>
+    <row r="119" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D119" s="9"/>
+    </row>
+    <row r="120" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D120" s="9"/>
+    </row>
+    <row r="121" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D121" s="9"/>
+    </row>
+    <row r="122" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D122" s="9"/>
+    </row>
+    <row r="123" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D123" s="9"/>
+    </row>
+    <row r="124" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D124" s="9"/>
+    </row>
+    <row r="125" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D125" s="9"/>
+    </row>
+    <row r="126" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D126" s="9"/>
+    </row>
+    <row r="127" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D127" s="9"/>
+    </row>
+    <row r="128" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D128" s="9"/>
+    </row>
+    <row r="129" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D129" s="9"/>
+    </row>
+    <row r="130" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D130" s="9"/>
+    </row>
+    <row r="131" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D131" s="9"/>
+    </row>
+    <row r="132" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D132" s="9"/>
+    </row>
+    <row r="133" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D133" s="9"/>
+    </row>
+    <row r="134" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D134" s="9"/>
+    </row>
+    <row r="135" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D135" s="9"/>
+    </row>
+    <row r="136" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D136" s="9"/>
+    </row>
+    <row r="137" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D137" s="9"/>
+    </row>
+    <row r="138" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D138" s="9"/>
+    </row>
+    <row r="139" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D139" s="9"/>
+    </row>
+    <row r="140" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D140" s="9"/>
+    </row>
+    <row r="141" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D141" s="9"/>
+    </row>
+    <row r="142" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D142" s="9"/>
+    </row>
+    <row r="143" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D143" s="9"/>
+    </row>
+    <row r="144" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D144" s="9"/>
+    </row>
+    <row r="145" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D145" s="9"/>
+    </row>
+    <row r="146" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D146" s="9"/>
+    </row>
+    <row r="147" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D147" s="9"/>
+    </row>
+    <row r="148" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D148" s="9"/>
+    </row>
+    <row r="149" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D149" s="9"/>
+    </row>
+    <row r="150" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D150" s="9"/>
+    </row>
+    <row r="151" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D151" s="9"/>
+    </row>
+    <row r="152" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D152" s="9"/>
+    </row>
+    <row r="153" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D153" s="9"/>
+    </row>
+    <row r="154" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D154" s="9"/>
+    </row>
+    <row r="155" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D155" s="9"/>
+    </row>
+    <row r="156" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D156" s="9"/>
+    </row>
+    <row r="157" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D157" s="9"/>
+    </row>
+    <row r="158" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D158" s="9"/>
+    </row>
+    <row r="159" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D159" s="9"/>
+    </row>
+    <row r="160" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D160" s="9"/>
+    </row>
+    <row r="161" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D161" s="9"/>
+    </row>
+    <row r="162" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D162" s="9"/>
+    </row>
+    <row r="163" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D163" s="9"/>
+    </row>
+    <row r="164" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D164" s="9"/>
+    </row>
+    <row r="165" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D165" s="9"/>
+    </row>
+    <row r="166" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D166" s="9"/>
+    </row>
+    <row r="167" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D167" s="9"/>
+    </row>
+    <row r="168" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D168" s="9"/>
+    </row>
+    <row r="169" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D169" s="9"/>
+    </row>
+    <row r="170" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D170" s="9"/>
+    </row>
+    <row r="171" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D171" s="9"/>
+    </row>
+    <row r="172" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D172" s="9"/>
+    </row>
+    <row r="173" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D173" s="9"/>
+    </row>
+    <row r="174" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D174" s="9"/>
+    </row>
+    <row r="175" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D175" s="9"/>
+    </row>
+    <row r="176" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D176" s="9"/>
+    </row>
+    <row r="177" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D177" s="9"/>
+    </row>
+    <row r="178" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D178" s="9"/>
+    </row>
+    <row r="179" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D179" s="9"/>
+    </row>
+    <row r="180" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D180" s="9"/>
+    </row>
+    <row r="181" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D181" s="9"/>
+    </row>
+    <row r="182" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D182" s="9"/>
+    </row>
+    <row r="183" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D183" s="9"/>
+    </row>
+    <row r="184" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D184" s="9"/>
+    </row>
+    <row r="185" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D185" s="9"/>
+    </row>
+    <row r="186" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D186" s="9"/>
+    </row>
+    <row r="187" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D187" s="9"/>
+    </row>
+    <row r="188" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D188" s="9"/>
+    </row>
+    <row r="189" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D189" s="9"/>
+    </row>
+    <row r="190" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D190" s="9"/>
+    </row>
+    <row r="191" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D191" s="9"/>
+    </row>
+    <row r="192" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D192" s="9"/>
+    </row>
+    <row r="193" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D193" s="9"/>
+    </row>
+    <row r="194" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D194" s="9"/>
+    </row>
+    <row r="195" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D195" s="9"/>
+    </row>
+    <row r="196" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D196" s="9"/>
+    </row>
+    <row r="197" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D197" s="9"/>
+    </row>
+    <row r="198" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D198" s="9"/>
+    </row>
+    <row r="199" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D199" s="9"/>
+    </row>
+    <row r="200" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D200" s="9"/>
+    </row>
+    <row r="201" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D201" s="9"/>
+    </row>
+    <row r="202" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D202" s="9"/>
+    </row>
+    <row r="203" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D203" s="9"/>
+    </row>
+    <row r="204" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D204" s="9"/>
+    </row>
+    <row r="205" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D205" s="9"/>
+    </row>
+    <row r="206" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D206" s="9"/>
+    </row>
+    <row r="207" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D207" s="9"/>
+    </row>
+    <row r="208" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D208" s="9"/>
+    </row>
+    <row r="209" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D209" s="9"/>
+    </row>
+    <row r="210" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D210" s="9"/>
+    </row>
+    <row r="211" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D211" s="9"/>
+    </row>
+    <row r="212" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D212" s="9"/>
+    </row>
+    <row r="213" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D213" s="9"/>
+    </row>
+    <row r="214" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D214" s="9"/>
+    </row>
+    <row r="215" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D215" s="9"/>
+    </row>
+    <row r="216" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D216" s="9"/>
+    </row>
+    <row r="217" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D217" s="9"/>
+    </row>
+    <row r="218" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D218" s="9"/>
+    </row>
+    <row r="219" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D219" s="9"/>
+    </row>
+    <row r="220" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D220" s="9"/>
+    </row>
+    <row r="221" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D221" s="9"/>
+    </row>
+    <row r="222" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D222" s="9"/>
+    </row>
+    <row r="223" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D223" s="9"/>
+    </row>
+    <row r="224" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D224" s="9"/>
+    </row>
+    <row r="225" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D225" s="9"/>
+    </row>
+    <row r="226" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D226" s="9"/>
+    </row>
+    <row r="227" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D227" s="9"/>
+    </row>
+    <row r="228" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D228" s="9"/>
+    </row>
+    <row r="229" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D229" s="9"/>
+    </row>
+    <row r="230" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D230" s="9"/>
+    </row>
+    <row r="231" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D231" s="9"/>
+    </row>
+    <row r="232" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D232" s="9"/>
+    </row>
+    <row r="233" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D233" s="9"/>
+    </row>
+    <row r="234" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D234" s="9"/>
+    </row>
+    <row r="235" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D235" s="9"/>
+    </row>
+    <row r="236" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D236" s="9"/>
+    </row>
+    <row r="237" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D237" s="9"/>
+    </row>
+    <row r="238" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D238" s="9"/>
+    </row>
+    <row r="239" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D239" s="9"/>
+    </row>
+    <row r="240" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D240" s="9"/>
+    </row>
+    <row r="241" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D241" s="9"/>
+    </row>
+    <row r="242" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D242" s="9"/>
+    </row>
+    <row r="243" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D243" s="9"/>
+    </row>
+    <row r="244" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D244" s="9"/>
+    </row>
+    <row r="245" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D245" s="9"/>
+    </row>
+    <row r="246" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D246" s="9"/>
+    </row>
+    <row r="247" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D247" s="9"/>
+    </row>
+    <row r="248" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D248" s="9"/>
+    </row>
+    <row r="249" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D249" s="9"/>
+    </row>
+    <row r="250" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D250" s="9"/>
+    </row>
+    <row r="251" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D251" s="9"/>
+    </row>
+    <row r="252" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D252" s="9"/>
+    </row>
+    <row r="253" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D253" s="9"/>
+    </row>
+    <row r="254" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D254" s="9"/>
+    </row>
+    <row r="255" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D255" s="9"/>
+    </row>
+    <row r="256" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D256" s="9"/>
+    </row>
+    <row r="257" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D257" s="9"/>
+    </row>
+    <row r="258" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D258" s="9"/>
+    </row>
+    <row r="259" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D259" s="9"/>
+    </row>
+    <row r="260" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D260" s="9"/>
+    </row>
+    <row r="261" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D261" s="9"/>
+    </row>
+    <row r="262" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D262" s="9"/>
+    </row>
+    <row r="263" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D263" s="9"/>
+    </row>
+    <row r="264" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D264" s="9"/>
+    </row>
+    <row r="265" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D265" s="9"/>
+    </row>
+    <row r="266" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D266" s="9"/>
+    </row>
+    <row r="267" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D267" s="9"/>
+    </row>
+    <row r="268" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D268" s="9"/>
+    </row>
+    <row r="269" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D269" s="9"/>
+    </row>
+    <row r="270" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D270" s="9"/>
+    </row>
+    <row r="271" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D271" s="9"/>
+    </row>
+    <row r="272" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D272" s="9"/>
+    </row>
+    <row r="273" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D273" s="9"/>
+    </row>
+    <row r="274" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D274" s="9"/>
+    </row>
+    <row r="275" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D275" s="9"/>
+    </row>
+    <row r="276" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D276" s="9"/>
+    </row>
+    <row r="277" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D277" s="9"/>
+    </row>
+    <row r="278" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D278" s="9"/>
+    </row>
+    <row r="279" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D279" s="9"/>
+    </row>
+    <row r="280" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D280" s="9"/>
+    </row>
+    <row r="281" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D281" s="9"/>
+    </row>
+    <row r="282" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D282" s="9"/>
+    </row>
+    <row r="283" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D283" s="9"/>
+    </row>
+    <row r="284" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D284" s="9"/>
+    </row>
+    <row r="285" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D285" s="9"/>
+    </row>
+    <row r="286" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D286" s="9"/>
+    </row>
+    <row r="287" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D287" s="9"/>
+    </row>
+    <row r="288" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D288" s="9"/>
+    </row>
+    <row r="289" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D289" s="9"/>
+    </row>
+    <row r="290" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D290" s="9"/>
+    </row>
+    <row r="291" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D291" s="9"/>
+    </row>
+    <row r="292" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D292" s="9"/>
+    </row>
+    <row r="293" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D293" s="9"/>
+    </row>
+    <row r="294" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D294" s="9"/>
+    </row>
+    <row r="295" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D295" s="9"/>
+    </row>
+    <row r="296" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D296" s="9"/>
+    </row>
+    <row r="297" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D297" s="9"/>
+    </row>
+    <row r="298" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D298" s="9"/>
+    </row>
+    <row r="299" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D299" s="9"/>
+    </row>
+    <row r="300" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D300" s="9"/>
+    </row>
+    <row r="301" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D301" s="9"/>
+    </row>
+    <row r="302" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D302" s="9"/>
+    </row>
+    <row r="303" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D303" s="9"/>
+    </row>
+    <row r="304" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D304" s="9"/>
+    </row>
+    <row r="305" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D305" s="9"/>
+    </row>
+    <row r="306" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D306" s="9"/>
+    </row>
+    <row r="307" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D307" s="9"/>
+    </row>
+    <row r="308" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D308" s="9"/>
+    </row>
+    <row r="309" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D309" s="9"/>
+    </row>
+    <row r="310" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D310" s="9"/>
+    </row>
+    <row r="311" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D311" s="9"/>
+    </row>
+    <row r="312" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D312" s="9"/>
+    </row>
+    <row r="313" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D313" s="9"/>
+    </row>
+    <row r="314" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D314" s="9"/>
+    </row>
+    <row r="315" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D315" s="9"/>
+    </row>
+    <row r="316" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D316" s="9"/>
+    </row>
+    <row r="317" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D317" s="9"/>
+    </row>
+    <row r="318" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D318" s="9"/>
+    </row>
+    <row r="319" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D319" s="9"/>
+    </row>
+    <row r="320" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D320" s="9"/>
+    </row>
+    <row r="321" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D321" s="9"/>
+    </row>
+    <row r="322" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D322" s="9"/>
+    </row>
+    <row r="323" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D323" s="9"/>
+    </row>
+    <row r="324" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D324" s="9"/>
+    </row>
+    <row r="325" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D325" s="9"/>
+    </row>
+    <row r="326" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D326" s="9"/>
+    </row>
+    <row r="327" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D327" s="9"/>
+    </row>
+    <row r="328" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D328" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="E1:N1"/>
     <mergeCell ref="N9:V9"/>
     <mergeCell ref="N8:V8"/>
+    <mergeCell ref="B2:J2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="33c8bdda-defa-435a-b09b-17c633094ed5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100E3D40D7370BE704D9F987D37C7518305" ma:contentTypeVersion="14" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="713a4ab37a2269b86b211ad079bba34f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="33c8bdda-defa-435a-b09b-17c633094ed5" xmlns:ns4="5e78a4f3-a9b1-4fe1-9da0-d43cac8a1c9f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="799d028bd5d959863f471fdad4996989" ns3:_="" ns4:_="">
     <xsd:import namespace="33c8bdda-defa-435a-b09b-17c633094ed5"/>
@@ -970,32 +1825,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{80F8F01B-42E4-4ED9-9137-CD8DE7B67D7E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="5e78a4f3-a9b1-4fe1-9da0-d43cac8a1c9f"/>
-    <ds:schemaRef ds:uri="33c8bdda-defa-435a-b09b-17c633094ed5"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0F7F9947-D4DB-49D0-81FC-207E2ECAB2E1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="33c8bdda-defa-435a-b09b-17c633094ed5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FB6CAFB9-21A0-4331-A882-841105351FBC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1012,4 +1859,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0F7F9947-D4DB-49D0-81FC-207E2ECAB2E1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{80F8F01B-42E4-4ED9-9137-CD8DE7B67D7E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="5e78a4f3-a9b1-4fe1-9da0-d43cac8a1c9f"/>
+    <ds:schemaRef ds:uri="33c8bdda-defa-435a-b09b-17c633094ed5"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/public/Plantillas/Reporte-Proyectos.xlsx
+++ b/public/Plantillas/Reporte-Proyectos.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sebas\OneDrive\Escritorio\TesisVersionBeta\public\Plantillas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sebas\OneDrive\Escritorio\TesisVersionBeta\Tesis_Final_Version\public\Plantillas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6CD7DE0-E4C7-45D4-9601-4A1C6BB44511}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9C85726-E502-420D-9E55-0187EB23F87C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E868ECBF-1759-4E94-BEB5-846D8DEB5231}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>N|</t>
   </si>
@@ -49,9 +49,6 @@
   </si>
   <si>
     <t>Estado del Proyecto</t>
-  </si>
-  <si>
-    <t>REGISTRO DE ESTUDIANTES DE PRÁCTICAS PROPROFESIONALES DE SERVICIO COMUNITARIO</t>
   </si>
   <si>
     <t>Nombre del Proyecto Social</t>
@@ -74,12 +71,21 @@
   <si>
     <t>Descripcion del Proyecto</t>
   </si>
+  <si>
+    <t>UNIVERSIDAD DE LAS FUERZAS ARMADAS - ESPE</t>
+  </si>
+  <si>
+    <t>CARRERA DE INGENIERÍA EN TECNOLOGÍAS DE LA INFORMACIÓN</t>
+  </si>
+  <si>
+    <t>INFORME DE PROYECTOS</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -115,9 +121,30 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="14"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Arial Narrow"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -130,12 +157,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
+        <fgColor rgb="FF40456C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -167,42 +194,57 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -211,6 +253,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF40456C"/>
+      <color rgb="FF9D8DD1"/>
+      <color rgb="FF9C95C9"/>
+      <color rgb="FFB668F6"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -220,6 +270,89 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1621465</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>35442</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1428750" cy="476250"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4AAF419F-DCE7-4CF0-9E14-DE55C259FEA9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7168116" y="327837"/>
+          <a:ext cx="1428750" cy="476250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1259209</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>64256</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="571500" cy="571500"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D796ED9A-A7D9-4AC8-B0FF-4A4E9B1F2D4F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="35292256" y="356651"/>
+          <a:ext cx="571500" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -521,8 +654,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDE16FFB-0DBF-4542-BF2E-0694577CABAA}">
   <dimension ref="A1:V328"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+    <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -544,45 +677,101 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="22.8" x14ac:dyDescent="0.4">
-      <c r="N1" s="6"/>
+      <c r="N1" s="3"/>
     </row>
     <row r="2" spans="1:22" ht="18" x14ac:dyDescent="0.3">
-      <c r="B2" s="7" t="s">
-        <v>5</v>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="9"/>
+    </row>
+    <row r="3" spans="1:22" ht="18" x14ac:dyDescent="0.35">
+      <c r="A3" s="7" t="s">
+        <v>12</v>
       </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="8"/>
-    </row>
-    <row r="8" spans="1:22" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A8" s="11" t="s">
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+    </row>
+    <row r="4" spans="1:22" ht="18" x14ac:dyDescent="0.35">
+      <c r="A4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A7" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+    </row>
+    <row r="8" spans="1:22" ht="18" x14ac:dyDescent="0.35">
+      <c r="A8" s="10" t="s">
         <v>0</v>
       </c>
       <c r="B8" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="D8" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="12" t="s">
+      <c r="F8" s="12" t="s">
         <v>8</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>9</v>
       </c>
       <c r="G8" s="12" t="s">
         <v>2</v>
       </c>
       <c r="H8" s="12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I8" s="12" t="s">
         <v>1</v>
@@ -591,1014 +780,1034 @@
         <v>3</v>
       </c>
       <c r="K8" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L8" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="M8" s="2"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="5"/>
-      <c r="Q8" s="5"/>
-      <c r="R8" s="5"/>
-      <c r="S8" s="5"/>
-      <c r="T8" s="5"/>
-      <c r="U8" s="5"/>
-      <c r="V8" s="5"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="6"/>
+      <c r="S8" s="6"/>
+      <c r="T8" s="6"/>
+      <c r="U8" s="6"/>
+      <c r="V8" s="6"/>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A9" s="1"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="10"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="4"/>
-      <c r="R9" s="4"/>
-      <c r="S9" s="4"/>
-      <c r="T9" s="4"/>
-      <c r="U9" s="4"/>
-      <c r="V9" s="4"/>
+      <c r="A9" s="13"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="5"/>
+      <c r="S9" s="5"/>
+      <c r="T9" s="5"/>
+      <c r="U9" s="5"/>
+      <c r="V9" s="5"/>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="D10" s="9"/>
+      <c r="D10" s="4"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="D11" s="9"/>
+      <c r="D11" s="4"/>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="D12" s="9"/>
+      <c r="D12" s="4"/>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="D13" s="9"/>
+      <c r="D13" s="4"/>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="D14" s="9"/>
+      <c r="D14" s="4"/>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="D15" s="9"/>
+      <c r="D15" s="4"/>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="D16" s="9"/>
+      <c r="D16" s="4"/>
     </row>
     <row r="17" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D17" s="9"/>
+      <c r="D17" s="4"/>
     </row>
     <row r="18" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D18" s="9"/>
+      <c r="D18" s="4"/>
     </row>
     <row r="19" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D19" s="9"/>
+      <c r="D19" s="4"/>
     </row>
     <row r="20" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D20" s="9"/>
+      <c r="D20" s="4"/>
     </row>
     <row r="21" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D21" s="9"/>
+      <c r="D21" s="4"/>
     </row>
     <row r="22" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D22" s="9"/>
+      <c r="D22" s="4"/>
     </row>
     <row r="23" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D23" s="9"/>
+      <c r="D23" s="4"/>
     </row>
     <row r="24" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D24" s="9"/>
+      <c r="D24" s="4"/>
     </row>
     <row r="25" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D25" s="9"/>
+      <c r="D25" s="4"/>
     </row>
     <row r="26" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D26" s="9"/>
+      <c r="D26" s="4"/>
     </row>
     <row r="27" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D27" s="9"/>
+      <c r="D27" s="4"/>
     </row>
     <row r="28" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D28" s="9"/>
+      <c r="D28" s="4"/>
     </row>
     <row r="29" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D29" s="9"/>
+      <c r="D29" s="4"/>
     </row>
     <row r="30" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D30" s="9"/>
+      <c r="D30" s="4"/>
     </row>
     <row r="31" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D31" s="9"/>
+      <c r="D31" s="4"/>
     </row>
     <row r="32" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D32" s="9"/>
+      <c r="D32" s="4"/>
     </row>
     <row r="33" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D33" s="9"/>
+      <c r="D33" s="4"/>
     </row>
     <row r="34" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D34" s="9"/>
+      <c r="D34" s="4"/>
     </row>
     <row r="35" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D35" s="9"/>
+      <c r="D35" s="4"/>
     </row>
     <row r="36" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D36" s="9"/>
+      <c r="D36" s="4"/>
     </row>
     <row r="37" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D37" s="9"/>
+      <c r="D37" s="4"/>
     </row>
     <row r="38" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D38" s="9"/>
+      <c r="D38" s="4"/>
     </row>
     <row r="39" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D39" s="9"/>
+      <c r="D39" s="4"/>
     </row>
     <row r="40" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D40" s="9"/>
+      <c r="D40" s="4"/>
     </row>
     <row r="41" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D41" s="9"/>
+      <c r="D41" s="4"/>
     </row>
     <row r="42" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D42" s="9"/>
+      <c r="D42" s="4"/>
     </row>
     <row r="43" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D43" s="9"/>
+      <c r="D43" s="4"/>
     </row>
     <row r="44" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D44" s="9"/>
+      <c r="D44" s="4"/>
     </row>
     <row r="45" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D45" s="9"/>
+      <c r="D45" s="4"/>
     </row>
     <row r="46" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D46" s="9"/>
+      <c r="D46" s="4"/>
     </row>
     <row r="47" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D47" s="9"/>
+      <c r="D47" s="4"/>
     </row>
     <row r="48" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D48" s="9"/>
+      <c r="D48" s="4"/>
     </row>
     <row r="49" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D49" s="9"/>
+      <c r="D49" s="4"/>
     </row>
     <row r="50" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D50" s="9"/>
+      <c r="D50" s="4"/>
     </row>
     <row r="51" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D51" s="9"/>
+      <c r="D51" s="4"/>
     </row>
     <row r="52" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D52" s="9"/>
+      <c r="D52" s="4"/>
     </row>
     <row r="53" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D53" s="9"/>
+      <c r="D53" s="4"/>
     </row>
     <row r="54" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D54" s="9"/>
+      <c r="D54" s="4"/>
     </row>
     <row r="55" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D55" s="9"/>
+      <c r="D55" s="4"/>
     </row>
     <row r="56" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D56" s="9"/>
+      <c r="D56" s="4"/>
     </row>
     <row r="57" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D57" s="9"/>
+      <c r="D57" s="4"/>
     </row>
     <row r="58" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D58" s="9"/>
+      <c r="D58" s="4"/>
     </row>
     <row r="59" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D59" s="9"/>
+      <c r="D59" s="4"/>
     </row>
     <row r="60" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D60" s="9"/>
+      <c r="D60" s="4"/>
     </row>
     <row r="61" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D61" s="9"/>
+      <c r="D61" s="4"/>
     </row>
     <row r="62" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D62" s="9"/>
+      <c r="D62" s="4"/>
     </row>
     <row r="63" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D63" s="9"/>
+      <c r="D63" s="4"/>
     </row>
     <row r="64" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D64" s="9"/>
+      <c r="D64" s="4"/>
     </row>
     <row r="65" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D65" s="9"/>
+      <c r="D65" s="4"/>
     </row>
     <row r="66" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D66" s="9"/>
+      <c r="D66" s="4"/>
     </row>
     <row r="67" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D67" s="9"/>
+      <c r="D67" s="4"/>
     </row>
     <row r="68" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D68" s="9"/>
+      <c r="D68" s="4"/>
     </row>
     <row r="69" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D69" s="9"/>
+      <c r="D69" s="4"/>
     </row>
     <row r="70" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D70" s="9"/>
+      <c r="D70" s="4"/>
     </row>
     <row r="71" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D71" s="9"/>
+      <c r="D71" s="4"/>
     </row>
     <row r="72" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D72" s="9"/>
+      <c r="D72" s="4"/>
     </row>
     <row r="73" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D73" s="9"/>
+      <c r="D73" s="4"/>
     </row>
     <row r="74" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D74" s="9"/>
+      <c r="D74" s="4"/>
     </row>
     <row r="75" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D75" s="9"/>
+      <c r="D75" s="4"/>
     </row>
     <row r="76" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D76" s="9"/>
+      <c r="D76" s="4"/>
     </row>
     <row r="77" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D77" s="9"/>
+      <c r="D77" s="4"/>
     </row>
     <row r="78" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D78" s="9"/>
+      <c r="D78" s="4"/>
     </row>
     <row r="79" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D79" s="9"/>
+      <c r="D79" s="4"/>
     </row>
     <row r="80" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D80" s="9"/>
+      <c r="D80" s="4"/>
     </row>
     <row r="81" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D81" s="9"/>
+      <c r="D81" s="4"/>
     </row>
     <row r="82" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D82" s="9"/>
+      <c r="D82" s="4"/>
     </row>
     <row r="83" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D83" s="9"/>
+      <c r="D83" s="4"/>
     </row>
     <row r="84" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D84" s="9"/>
+      <c r="D84" s="4"/>
     </row>
     <row r="85" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D85" s="9"/>
+      <c r="D85" s="4"/>
     </row>
     <row r="86" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D86" s="9"/>
+      <c r="D86" s="4"/>
     </row>
     <row r="87" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D87" s="9"/>
+      <c r="D87" s="4"/>
     </row>
     <row r="88" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D88" s="9"/>
+      <c r="D88" s="4"/>
     </row>
     <row r="89" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D89" s="9"/>
+      <c r="D89" s="4"/>
     </row>
     <row r="90" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D90" s="9"/>
+      <c r="D90" s="4"/>
     </row>
     <row r="91" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D91" s="9"/>
+      <c r="D91" s="4"/>
     </row>
     <row r="92" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D92" s="9"/>
+      <c r="D92" s="4"/>
     </row>
     <row r="93" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D93" s="9"/>
+      <c r="D93" s="4"/>
     </row>
     <row r="94" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D94" s="9"/>
+      <c r="D94" s="4"/>
     </row>
     <row r="95" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D95" s="9"/>
+      <c r="D95" s="4"/>
     </row>
     <row r="96" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D96" s="9"/>
+      <c r="D96" s="4"/>
     </row>
     <row r="97" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D97" s="9"/>
+      <c r="D97" s="4"/>
     </row>
     <row r="98" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D98" s="9"/>
+      <c r="D98" s="4"/>
     </row>
     <row r="99" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D99" s="9"/>
+      <c r="D99" s="4"/>
     </row>
     <row r="100" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D100" s="9"/>
+      <c r="D100" s="4"/>
     </row>
     <row r="101" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D101" s="9"/>
+      <c r="D101" s="4"/>
     </row>
     <row r="102" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D102" s="9"/>
+      <c r="D102" s="4"/>
     </row>
     <row r="103" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D103" s="9"/>
+      <c r="D103" s="4"/>
     </row>
     <row r="104" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D104" s="9"/>
+      <c r="D104" s="4"/>
     </row>
     <row r="105" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D105" s="9"/>
+      <c r="D105" s="4"/>
     </row>
     <row r="106" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D106" s="9"/>
+      <c r="D106" s="4"/>
     </row>
     <row r="107" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D107" s="9"/>
+      <c r="D107" s="4"/>
     </row>
     <row r="108" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D108" s="9"/>
+      <c r="D108" s="4"/>
     </row>
     <row r="109" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D109" s="9"/>
+      <c r="D109" s="4"/>
     </row>
     <row r="110" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D110" s="9"/>
+      <c r="D110" s="4"/>
     </row>
     <row r="111" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D111" s="9"/>
+      <c r="D111" s="4"/>
     </row>
     <row r="112" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D112" s="9"/>
+      <c r="D112" s="4"/>
     </row>
     <row r="113" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D113" s="9"/>
+      <c r="D113" s="4"/>
     </row>
     <row r="114" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D114" s="9"/>
+      <c r="D114" s="4"/>
     </row>
     <row r="115" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D115" s="9"/>
+      <c r="D115" s="4"/>
     </row>
     <row r="116" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D116" s="9"/>
+      <c r="D116" s="4"/>
     </row>
     <row r="117" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D117" s="9"/>
+      <c r="D117" s="4"/>
     </row>
     <row r="118" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D118" s="9"/>
+      <c r="D118" s="4"/>
     </row>
     <row r="119" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D119" s="9"/>
+      <c r="D119" s="4"/>
     </row>
     <row r="120" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D120" s="9"/>
+      <c r="D120" s="4"/>
     </row>
     <row r="121" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D121" s="9"/>
+      <c r="D121" s="4"/>
     </row>
     <row r="122" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D122" s="9"/>
+      <c r="D122" s="4"/>
     </row>
     <row r="123" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D123" s="9"/>
+      <c r="D123" s="4"/>
     </row>
     <row r="124" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D124" s="9"/>
+      <c r="D124" s="4"/>
     </row>
     <row r="125" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D125" s="9"/>
+      <c r="D125" s="4"/>
     </row>
     <row r="126" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D126" s="9"/>
+      <c r="D126" s="4"/>
     </row>
     <row r="127" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D127" s="9"/>
+      <c r="D127" s="4"/>
     </row>
     <row r="128" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D128" s="9"/>
+      <c r="D128" s="4"/>
     </row>
     <row r="129" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D129" s="9"/>
+      <c r="D129" s="4"/>
     </row>
     <row r="130" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D130" s="9"/>
+      <c r="D130" s="4"/>
     </row>
     <row r="131" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D131" s="9"/>
+      <c r="D131" s="4"/>
     </row>
     <row r="132" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D132" s="9"/>
+      <c r="D132" s="4"/>
     </row>
     <row r="133" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D133" s="9"/>
+      <c r="D133" s="4"/>
     </row>
     <row r="134" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D134" s="9"/>
+      <c r="D134" s="4"/>
     </row>
     <row r="135" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D135" s="9"/>
+      <c r="D135" s="4"/>
     </row>
     <row r="136" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D136" s="9"/>
+      <c r="D136" s="4"/>
     </row>
     <row r="137" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D137" s="9"/>
+      <c r="D137" s="4"/>
     </row>
     <row r="138" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D138" s="9"/>
+      <c r="D138" s="4"/>
     </row>
     <row r="139" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D139" s="9"/>
+      <c r="D139" s="4"/>
     </row>
     <row r="140" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D140" s="9"/>
+      <c r="D140" s="4"/>
     </row>
     <row r="141" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D141" s="9"/>
+      <c r="D141" s="4"/>
     </row>
     <row r="142" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D142" s="9"/>
+      <c r="D142" s="4"/>
     </row>
     <row r="143" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D143" s="9"/>
+      <c r="D143" s="4"/>
     </row>
     <row r="144" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D144" s="9"/>
+      <c r="D144" s="4"/>
     </row>
     <row r="145" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D145" s="9"/>
+      <c r="D145" s="4"/>
     </row>
     <row r="146" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D146" s="9"/>
+      <c r="D146" s="4"/>
     </row>
     <row r="147" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D147" s="9"/>
+      <c r="D147" s="4"/>
     </row>
     <row r="148" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D148" s="9"/>
+      <c r="D148" s="4"/>
     </row>
     <row r="149" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D149" s="9"/>
+      <c r="D149" s="4"/>
     </row>
     <row r="150" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D150" s="9"/>
+      <c r="D150" s="4"/>
     </row>
     <row r="151" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D151" s="9"/>
+      <c r="D151" s="4"/>
     </row>
     <row r="152" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D152" s="9"/>
+      <c r="D152" s="4"/>
     </row>
     <row r="153" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D153" s="9"/>
+      <c r="D153" s="4"/>
     </row>
     <row r="154" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D154" s="9"/>
+      <c r="D154" s="4"/>
     </row>
     <row r="155" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D155" s="9"/>
+      <c r="D155" s="4"/>
     </row>
     <row r="156" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D156" s="9"/>
+      <c r="D156" s="4"/>
     </row>
     <row r="157" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D157" s="9"/>
+      <c r="D157" s="4"/>
     </row>
     <row r="158" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D158" s="9"/>
+      <c r="D158" s="4"/>
     </row>
     <row r="159" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D159" s="9"/>
+      <c r="D159" s="4"/>
     </row>
     <row r="160" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D160" s="9"/>
+      <c r="D160" s="4"/>
     </row>
     <row r="161" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D161" s="9"/>
+      <c r="D161" s="4"/>
     </row>
     <row r="162" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D162" s="9"/>
+      <c r="D162" s="4"/>
     </row>
     <row r="163" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D163" s="9"/>
+      <c r="D163" s="4"/>
     </row>
     <row r="164" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D164" s="9"/>
+      <c r="D164" s="4"/>
     </row>
     <row r="165" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D165" s="9"/>
+      <c r="D165" s="4"/>
     </row>
     <row r="166" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D166" s="9"/>
+      <c r="D166" s="4"/>
     </row>
     <row r="167" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D167" s="9"/>
+      <c r="D167" s="4"/>
     </row>
     <row r="168" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D168" s="9"/>
+      <c r="D168" s="4"/>
     </row>
     <row r="169" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D169" s="9"/>
+      <c r="D169" s="4"/>
     </row>
     <row r="170" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D170" s="9"/>
+      <c r="D170" s="4"/>
     </row>
     <row r="171" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D171" s="9"/>
+      <c r="D171" s="4"/>
     </row>
     <row r="172" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D172" s="9"/>
+      <c r="D172" s="4"/>
     </row>
     <row r="173" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D173" s="9"/>
+      <c r="D173" s="4"/>
     </row>
     <row r="174" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D174" s="9"/>
+      <c r="D174" s="4"/>
     </row>
     <row r="175" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D175" s="9"/>
+      <c r="D175" s="4"/>
     </row>
     <row r="176" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D176" s="9"/>
+      <c r="D176" s="4"/>
     </row>
     <row r="177" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D177" s="9"/>
+      <c r="D177" s="4"/>
     </row>
     <row r="178" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D178" s="9"/>
+      <c r="D178" s="4"/>
     </row>
     <row r="179" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D179" s="9"/>
+      <c r="D179" s="4"/>
     </row>
     <row r="180" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D180" s="9"/>
+      <c r="D180" s="4"/>
     </row>
     <row r="181" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D181" s="9"/>
+      <c r="D181" s="4"/>
     </row>
     <row r="182" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D182" s="9"/>
+      <c r="D182" s="4"/>
     </row>
     <row r="183" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D183" s="9"/>
+      <c r="D183" s="4"/>
     </row>
     <row r="184" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D184" s="9"/>
+      <c r="D184" s="4"/>
     </row>
     <row r="185" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D185" s="9"/>
+      <c r="D185" s="4"/>
     </row>
     <row r="186" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D186" s="9"/>
+      <c r="D186" s="4"/>
     </row>
     <row r="187" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D187" s="9"/>
+      <c r="D187" s="4"/>
     </row>
     <row r="188" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D188" s="9"/>
+      <c r="D188" s="4"/>
     </row>
     <row r="189" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D189" s="9"/>
+      <c r="D189" s="4"/>
     </row>
     <row r="190" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D190" s="9"/>
+      <c r="D190" s="4"/>
     </row>
     <row r="191" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D191" s="9"/>
+      <c r="D191" s="4"/>
     </row>
     <row r="192" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D192" s="9"/>
+      <c r="D192" s="4"/>
     </row>
     <row r="193" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D193" s="9"/>
+      <c r="D193" s="4"/>
     </row>
     <row r="194" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D194" s="9"/>
+      <c r="D194" s="4"/>
     </row>
     <row r="195" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D195" s="9"/>
+      <c r="D195" s="4"/>
     </row>
     <row r="196" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D196" s="9"/>
+      <c r="D196" s="4"/>
     </row>
     <row r="197" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D197" s="9"/>
+      <c r="D197" s="4"/>
     </row>
     <row r="198" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D198" s="9"/>
+      <c r="D198" s="4"/>
     </row>
     <row r="199" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D199" s="9"/>
+      <c r="D199" s="4"/>
     </row>
     <row r="200" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D200" s="9"/>
+      <c r="D200" s="4"/>
     </row>
     <row r="201" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D201" s="9"/>
+      <c r="D201" s="4"/>
     </row>
     <row r="202" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D202" s="9"/>
+      <c r="D202" s="4"/>
     </row>
     <row r="203" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D203" s="9"/>
+      <c r="D203" s="4"/>
     </row>
     <row r="204" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D204" s="9"/>
+      <c r="D204" s="4"/>
     </row>
     <row r="205" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D205" s="9"/>
+      <c r="D205" s="4"/>
     </row>
     <row r="206" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D206" s="9"/>
+      <c r="D206" s="4"/>
     </row>
     <row r="207" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D207" s="9"/>
+      <c r="D207" s="4"/>
     </row>
     <row r="208" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D208" s="9"/>
+      <c r="D208" s="4"/>
     </row>
     <row r="209" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D209" s="9"/>
+      <c r="D209" s="4"/>
     </row>
     <row r="210" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D210" s="9"/>
+      <c r="D210" s="4"/>
     </row>
     <row r="211" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D211" s="9"/>
+      <c r="D211" s="4"/>
     </row>
     <row r="212" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D212" s="9"/>
+      <c r="D212" s="4"/>
     </row>
     <row r="213" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D213" s="9"/>
+      <c r="D213" s="4"/>
     </row>
     <row r="214" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D214" s="9"/>
+      <c r="D214" s="4"/>
     </row>
     <row r="215" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D215" s="9"/>
+      <c r="D215" s="4"/>
     </row>
     <row r="216" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D216" s="9"/>
+      <c r="D216" s="4"/>
     </row>
     <row r="217" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D217" s="9"/>
+      <c r="D217" s="4"/>
     </row>
     <row r="218" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D218" s="9"/>
+      <c r="D218" s="4"/>
     </row>
     <row r="219" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D219" s="9"/>
+      <c r="D219" s="4"/>
     </row>
     <row r="220" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D220" s="9"/>
+      <c r="D220" s="4"/>
     </row>
     <row r="221" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D221" s="9"/>
+      <c r="D221" s="4"/>
     </row>
     <row r="222" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D222" s="9"/>
+      <c r="D222" s="4"/>
     </row>
     <row r="223" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D223" s="9"/>
+      <c r="D223" s="4"/>
     </row>
     <row r="224" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D224" s="9"/>
+      <c r="D224" s="4"/>
     </row>
     <row r="225" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D225" s="9"/>
+      <c r="D225" s="4"/>
     </row>
     <row r="226" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D226" s="9"/>
+      <c r="D226" s="4"/>
     </row>
     <row r="227" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D227" s="9"/>
+      <c r="D227" s="4"/>
     </row>
     <row r="228" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D228" s="9"/>
+      <c r="D228" s="4"/>
     </row>
     <row r="229" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D229" s="9"/>
+      <c r="D229" s="4"/>
     </row>
     <row r="230" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D230" s="9"/>
+      <c r="D230" s="4"/>
     </row>
     <row r="231" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D231" s="9"/>
+      <c r="D231" s="4"/>
     </row>
     <row r="232" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D232" s="9"/>
+      <c r="D232" s="4"/>
     </row>
     <row r="233" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D233" s="9"/>
+      <c r="D233" s="4"/>
     </row>
     <row r="234" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D234" s="9"/>
+      <c r="D234" s="4"/>
     </row>
     <row r="235" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D235" s="9"/>
+      <c r="D235" s="4"/>
     </row>
     <row r="236" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D236" s="9"/>
+      <c r="D236" s="4"/>
     </row>
     <row r="237" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D237" s="9"/>
+      <c r="D237" s="4"/>
     </row>
     <row r="238" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D238" s="9"/>
+      <c r="D238" s="4"/>
     </row>
     <row r="239" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D239" s="9"/>
+      <c r="D239" s="4"/>
     </row>
     <row r="240" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D240" s="9"/>
+      <c r="D240" s="4"/>
     </row>
     <row r="241" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D241" s="9"/>
+      <c r="D241" s="4"/>
     </row>
     <row r="242" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D242" s="9"/>
+      <c r="D242" s="4"/>
     </row>
     <row r="243" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D243" s="9"/>
+      <c r="D243" s="4"/>
     </row>
     <row r="244" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D244" s="9"/>
+      <c r="D244" s="4"/>
     </row>
     <row r="245" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D245" s="9"/>
+      <c r="D245" s="4"/>
     </row>
     <row r="246" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D246" s="9"/>
+      <c r="D246" s="4"/>
     </row>
     <row r="247" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D247" s="9"/>
+      <c r="D247" s="4"/>
     </row>
     <row r="248" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D248" s="9"/>
+      <c r="D248" s="4"/>
     </row>
     <row r="249" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D249" s="9"/>
+      <c r="D249" s="4"/>
     </row>
     <row r="250" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D250" s="9"/>
+      <c r="D250" s="4"/>
     </row>
     <row r="251" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D251" s="9"/>
+      <c r="D251" s="4"/>
     </row>
     <row r="252" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D252" s="9"/>
+      <c r="D252" s="4"/>
     </row>
     <row r="253" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D253" s="9"/>
+      <c r="D253" s="4"/>
     </row>
     <row r="254" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D254" s="9"/>
+      <c r="D254" s="4"/>
     </row>
     <row r="255" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D255" s="9"/>
+      <c r="D255" s="4"/>
     </row>
     <row r="256" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D256" s="9"/>
+      <c r="D256" s="4"/>
     </row>
     <row r="257" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D257" s="9"/>
+      <c r="D257" s="4"/>
     </row>
     <row r="258" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D258" s="9"/>
+      <c r="D258" s="4"/>
     </row>
     <row r="259" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D259" s="9"/>
+      <c r="D259" s="4"/>
     </row>
     <row r="260" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D260" s="9"/>
+      <c r="D260" s="4"/>
     </row>
     <row r="261" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D261" s="9"/>
+      <c r="D261" s="4"/>
     </row>
     <row r="262" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D262" s="9"/>
+      <c r="D262" s="4"/>
     </row>
     <row r="263" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D263" s="9"/>
+      <c r="D263" s="4"/>
     </row>
     <row r="264" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D264" s="9"/>
+      <c r="D264" s="4"/>
     </row>
     <row r="265" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D265" s="9"/>
+      <c r="D265" s="4"/>
     </row>
     <row r="266" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D266" s="9"/>
+      <c r="D266" s="4"/>
     </row>
     <row r="267" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D267" s="9"/>
+      <c r="D267" s="4"/>
     </row>
     <row r="268" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D268" s="9"/>
+      <c r="D268" s="4"/>
     </row>
     <row r="269" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D269" s="9"/>
+      <c r="D269" s="4"/>
     </row>
     <row r="270" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D270" s="9"/>
+      <c r="D270" s="4"/>
     </row>
     <row r="271" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D271" s="9"/>
+      <c r="D271" s="4"/>
     </row>
     <row r="272" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D272" s="9"/>
+      <c r="D272" s="4"/>
     </row>
     <row r="273" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D273" s="9"/>
+      <c r="D273" s="4"/>
     </row>
     <row r="274" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D274" s="9"/>
+      <c r="D274" s="4"/>
     </row>
     <row r="275" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D275" s="9"/>
+      <c r="D275" s="4"/>
     </row>
     <row r="276" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D276" s="9"/>
+      <c r="D276" s="4"/>
     </row>
     <row r="277" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D277" s="9"/>
+      <c r="D277" s="4"/>
     </row>
     <row r="278" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D278" s="9"/>
+      <c r="D278" s="4"/>
     </row>
     <row r="279" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D279" s="9"/>
+      <c r="D279" s="4"/>
     </row>
     <row r="280" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D280" s="9"/>
+      <c r="D280" s="4"/>
     </row>
     <row r="281" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D281" s="9"/>
+      <c r="D281" s="4"/>
     </row>
     <row r="282" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D282" s="9"/>
+      <c r="D282" s="4"/>
     </row>
     <row r="283" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D283" s="9"/>
+      <c r="D283" s="4"/>
     </row>
     <row r="284" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D284" s="9"/>
+      <c r="D284" s="4"/>
     </row>
     <row r="285" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D285" s="9"/>
+      <c r="D285" s="4"/>
     </row>
     <row r="286" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D286" s="9"/>
+      <c r="D286" s="4"/>
     </row>
     <row r="287" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D287" s="9"/>
+      <c r="D287" s="4"/>
     </row>
     <row r="288" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D288" s="9"/>
+      <c r="D288" s="4"/>
     </row>
     <row r="289" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D289" s="9"/>
+      <c r="D289" s="4"/>
     </row>
     <row r="290" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D290" s="9"/>
+      <c r="D290" s="4"/>
     </row>
     <row r="291" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D291" s="9"/>
+      <c r="D291" s="4"/>
     </row>
     <row r="292" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D292" s="9"/>
+      <c r="D292" s="4"/>
     </row>
     <row r="293" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D293" s="9"/>
+      <c r="D293" s="4"/>
     </row>
     <row r="294" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D294" s="9"/>
+      <c r="D294" s="4"/>
     </row>
     <row r="295" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D295" s="9"/>
+      <c r="D295" s="4"/>
     </row>
     <row r="296" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D296" s="9"/>
+      <c r="D296" s="4"/>
     </row>
     <row r="297" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D297" s="9"/>
+      <c r="D297" s="4"/>
     </row>
     <row r="298" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D298" s="9"/>
+      <c r="D298" s="4"/>
     </row>
     <row r="299" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D299" s="9"/>
+      <c r="D299" s="4"/>
     </row>
     <row r="300" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D300" s="9"/>
+      <c r="D300" s="4"/>
     </row>
     <row r="301" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D301" s="9"/>
+      <c r="D301" s="4"/>
     </row>
     <row r="302" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D302" s="9"/>
+      <c r="D302" s="4"/>
     </row>
     <row r="303" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D303" s="9"/>
+      <c r="D303" s="4"/>
     </row>
     <row r="304" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D304" s="9"/>
+      <c r="D304" s="4"/>
     </row>
     <row r="305" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D305" s="9"/>
+      <c r="D305" s="4"/>
     </row>
     <row r="306" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D306" s="9"/>
+      <c r="D306" s="4"/>
     </row>
     <row r="307" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D307" s="9"/>
+      <c r="D307" s="4"/>
     </row>
     <row r="308" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D308" s="9"/>
+      <c r="D308" s="4"/>
     </row>
     <row r="309" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D309" s="9"/>
+      <c r="D309" s="4"/>
     </row>
     <row r="310" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D310" s="9"/>
+      <c r="D310" s="4"/>
     </row>
     <row r="311" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D311" s="9"/>
+      <c r="D311" s="4"/>
     </row>
     <row r="312" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D312" s="9"/>
+      <c r="D312" s="4"/>
     </row>
     <row r="313" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D313" s="9"/>
+      <c r="D313" s="4"/>
     </row>
     <row r="314" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D314" s="9"/>
+      <c r="D314" s="4"/>
     </row>
     <row r="315" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D315" s="9"/>
+      <c r="D315" s="4"/>
     </row>
     <row r="316" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D316" s="9"/>
+      <c r="D316" s="4"/>
     </row>
     <row r="317" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D317" s="9"/>
+      <c r="D317" s="4"/>
     </row>
     <row r="318" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D318" s="9"/>
+      <c r="D318" s="4"/>
     </row>
     <row r="319" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D319" s="9"/>
+      <c r="D319" s="4"/>
     </row>
     <row r="320" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D320" s="9"/>
+      <c r="D320" s="4"/>
     </row>
     <row r="321" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D321" s="9"/>
+      <c r="D321" s="4"/>
     </row>
     <row r="322" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D322" s="9"/>
+      <c r="D322" s="4"/>
     </row>
     <row r="323" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D323" s="9"/>
+      <c r="D323" s="4"/>
     </row>
     <row r="324" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D324" s="9"/>
+      <c r="D324" s="4"/>
     </row>
     <row r="325" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D325" s="9"/>
+      <c r="D325" s="4"/>
     </row>
     <row r="326" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D326" s="9"/>
+      <c r="D326" s="4"/>
     </row>
     <row r="327" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D327" s="9"/>
+      <c r="D327" s="4"/>
     </row>
     <row r="328" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D328" s="9"/>
+      <c r="D328" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="5">
     <mergeCell ref="N9:V9"/>
     <mergeCell ref="N8:V8"/>
-    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="A4:Q4"/>
+    <mergeCell ref="A3:Q3"/>
+    <mergeCell ref="A7:L7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="33c8bdda-defa-435a-b09b-17c633094ed5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100E3D40D7370BE704D9F987D37C7518305" ma:contentTypeVersion="14" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="713a4ab37a2269b86b211ad079bba34f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="33c8bdda-defa-435a-b09b-17c633094ed5" xmlns:ns4="5e78a4f3-a9b1-4fe1-9da0-d43cac8a1c9f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="799d028bd5d959863f471fdad4996989" ns3:_="" ns4:_="">
     <xsd:import namespace="33c8bdda-defa-435a-b09b-17c633094ed5"/>
@@ -1825,24 +2034,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{80F8F01B-42E4-4ED9-9137-CD8DE7B67D7E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="5e78a4f3-a9b1-4fe1-9da0-d43cac8a1c9f"/>
+    <ds:schemaRef ds:uri="33c8bdda-defa-435a-b09b-17c633094ed5"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="33c8bdda-defa-435a-b09b-17c633094ed5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0F7F9947-D4DB-49D0-81FC-207E2ECAB2E1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FB6CAFB9-21A0-4331-A882-841105351FBC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1859,29 +2076,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0F7F9947-D4DB-49D0-81FC-207E2ECAB2E1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{80F8F01B-42E4-4ED9-9137-CD8DE7B67D7E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="5e78a4f3-a9b1-4fe1-9da0-d43cac8a1c9f"/>
-    <ds:schemaRef ds:uri="33c8bdda-defa-435a-b09b-17c633094ed5"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/public/Plantillas/Reporte-Proyectos.xlsx
+++ b/public/Plantillas/Reporte-Proyectos.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sebas\OneDrive\Escritorio\TesisVersionBeta\Tesis_Final_Version\public\Plantillas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9C85726-E502-420D-9E55-0187EB23F87C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E9C9754-A3E5-41B2-A7BC-63B175DCE790}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E868ECBF-1759-4E94-BEB5-846D8DEB5231}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$8:$F$8</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -34,18 +37,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>N|</t>
   </si>
   <si>
-    <t>Fecha Inicio</t>
-  </si>
-  <si>
     <t>Departamento</t>
-  </si>
-  <si>
-    <t>Fecha Finaliazion</t>
   </si>
   <si>
     <t>Estado del Proyecto</t>
@@ -57,25 +54,10 @@
     <t>Código del Proyecto Social</t>
   </si>
   <si>
-    <t>Director de Proyecto</t>
-  </si>
-  <si>
-    <t>Docente Colaborador</t>
-  </si>
-  <si>
-    <t>Periodo del Proyecto</t>
-  </si>
-  <si>
-    <t>NRC</t>
-  </si>
-  <si>
     <t>Descripcion del Proyecto</t>
   </si>
   <si>
     <t>UNIVERSIDAD DE LAS FUERZAS ARMADAS - ESPE</t>
-  </si>
-  <si>
-    <t>CARRERA DE INGENIERÍA EN TECNOLOGÍAS DE LA INFORMACIÓN</t>
   </si>
   <si>
     <t>INFORME DE PROYECTOS</t>
@@ -207,7 +189,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -217,15 +199,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -235,16 +208,26 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -276,10 +259,10 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1621465</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>292395</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>35442</xdr:rowOff>
+      <xdr:rowOff>227537</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1428750" cy="476250"/>
     <xdr:pic>
@@ -303,7 +286,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7168116" y="327837"/>
+          <a:off x="292395" y="515502"/>
           <a:ext cx="1428750" cy="476250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -315,10 +298,10 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>1259209</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2379747</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>64256</xdr:rowOff>
+      <xdr:rowOff>191449</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="571500" cy="571500"/>
     <xdr:pic>
@@ -342,7 +325,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="35292256" y="356651"/>
+          <a:off x="18372887" y="479414"/>
           <a:ext cx="571500" cy="571500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -655,16 +638,16 @@
   <dimension ref="A1:V328"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="69.33203125" customWidth="1"/>
-    <col min="3" max="3" width="57.5546875" customWidth="1"/>
+    <col min="2" max="2" width="58" customWidth="1"/>
+    <col min="3" max="3" width="28.77734375" customWidth="1"/>
     <col min="4" max="4" width="67" customWidth="1"/>
-    <col min="5" max="5" width="77.44140625" customWidth="1"/>
-    <col min="6" max="6" width="52.88671875" customWidth="1"/>
+    <col min="5" max="5" width="27.33203125" customWidth="1"/>
+    <col min="6" max="6" width="24.6640625" customWidth="1"/>
     <col min="7" max="7" width="30.6640625" customWidth="1"/>
     <col min="8" max="8" width="26.77734375" customWidth="1"/>
     <col min="9" max="9" width="41.109375" customWidth="1"/>
@@ -680,145 +663,113 @@
       <c r="N1" s="3"/>
     </row>
     <row r="2" spans="1:22" ht="18" x14ac:dyDescent="0.3">
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="9"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="6"/>
     </row>
     <row r="3" spans="1:22" ht="18" x14ac:dyDescent="0.35">
-      <c r="A3" s="7" t="s">
-        <v>12</v>
+      <c r="A3" s="15" t="s">
+        <v>6</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="7"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="11"/>
+      <c r="P3" s="11"/>
+      <c r="Q3" s="11"/>
     </row>
     <row r="4" spans="1:22" ht="18" x14ac:dyDescent="0.35">
-      <c r="A4" s="7" t="s">
-        <v>13</v>
+      <c r="A4" s="15"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="11"/>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="11"/>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A7" s="14" t="s">
+        <v>7</v>
       </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
-      <c r="O4" s="7"/>
-      <c r="P4" s="7"/>
-      <c r="Q4" s="7"/>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A7" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
     </row>
     <row r="8" spans="1:22" ht="18" x14ac:dyDescent="0.35">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="12" t="s">
-        <v>6</v>
+      <c r="E8" s="8" t="s">
+        <v>1</v>
       </c>
-      <c r="D8" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="G8" s="12" t="s">
+      <c r="F8" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="H8" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="I8" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="J8" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="K8" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="L8" s="12" t="s">
-        <v>4</v>
-      </c>
       <c r="M8" s="1"/>
-      <c r="N8" s="6"/>
-      <c r="O8" s="6"/>
-      <c r="P8" s="6"/>
-      <c r="Q8" s="6"/>
-      <c r="R8" s="6"/>
-      <c r="S8" s="6"/>
-      <c r="T8" s="6"/>
-      <c r="U8" s="6"/>
-      <c r="V8" s="6"/>
+      <c r="N8" s="13"/>
+      <c r="O8" s="13"/>
+      <c r="P8" s="13"/>
+      <c r="Q8" s="13"/>
+      <c r="R8" s="13"/>
+      <c r="S8" s="13"/>
+      <c r="T8" s="13"/>
+      <c r="U8" s="13"/>
+      <c r="V8" s="13"/>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A9" s="13"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
+      <c r="A9" s="9"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
       <c r="M9" s="2"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="5"/>
-      <c r="P9" s="5"/>
-      <c r="Q9" s="5"/>
-      <c r="R9" s="5"/>
-      <c r="S9" s="5"/>
-      <c r="T9" s="5"/>
-      <c r="U9" s="5"/>
-      <c r="V9" s="5"/>
+      <c r="N9" s="12"/>
+      <c r="O9" s="12"/>
+      <c r="P9" s="12"/>
+      <c r="Q9" s="12"/>
+      <c r="R9" s="12"/>
+      <c r="S9" s="12"/>
+      <c r="T9" s="12"/>
+      <c r="U9" s="12"/>
+      <c r="V9" s="12"/>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="D10" s="4"/>
@@ -1778,15 +1729,16 @@
       <c r="D328" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <autoFilter ref="A8:F8" xr:uid="{DDE16FFB-0DBF-4542-BF2E-0694577CABAA}"/>
+  <mergeCells count="4">
     <mergeCell ref="N9:V9"/>
     <mergeCell ref="N8:V8"/>
-    <mergeCell ref="A4:Q4"/>
-    <mergeCell ref="A3:Q3"/>
-    <mergeCell ref="A7:L7"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="A3:F4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/public/Plantillas/Reporte-Proyectos.xlsx
+++ b/public/Plantillas/Reporte-Proyectos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sebas\OneDrive\Escritorio\TesisVersionBeta\Tesis_Final_Version\public\Plantillas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E9C9754-A3E5-41B2-A7BC-63B175DCE790}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F099C97-86B2-4880-8CA0-B8DF18AE54C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E868ECBF-1759-4E94-BEB5-846D8DEB5231}"/>
+    <workbookView xWindow="-20610" yWindow="540" windowWidth="20730" windowHeight="11040" xr2:uid="{E868ECBF-1759-4E94-BEB5-846D8DEB5231}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>N|</t>
   </si>
@@ -57,10 +57,13 @@
     <t>Descripcion del Proyecto</t>
   </si>
   <si>
-    <t>UNIVERSIDAD DE LAS FUERZAS ARMADAS - ESPE</t>
+    <t>REPORTE DE PROYECTOS</t>
   </si>
   <si>
-    <t>INFORME DE PROYECTOS</t>
+    <t>UNIVERSIDAD DE LAS FUERZAS ARMADAS - ESPE SEDE SANTO DOMINGO</t>
+  </si>
+  <si>
+    <t>CARRERA DE INGENIERÍA EN TECNOLOGÍAS DE LA INFORMACIÓN</t>
   </si>
 </sst>
 </file>
@@ -112,11 +115,6 @@
     <font>
       <b/>
       <sz val="14"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -124,6 +122,11 @@
     </font>
     <font>
       <b/>
+      <sz val="14"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial Narrow"/>
@@ -205,19 +208,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -227,8 +224,14 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -260,17 +263,17 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>292395</xdr:colOff>
+      <xdr:colOff>515192</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>227537</xdr:rowOff>
+      <xdr:rowOff>158868</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1428750" cy="476250"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 1">
+        <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4AAF419F-DCE7-4CF0-9E14-DE55C259FEA9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2DDB74C-0B80-414E-A39B-3572E8822E16}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -286,7 +289,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="292395" y="515502"/>
+          <a:off x="515192" y="446833"/>
           <a:ext cx="1428750" cy="476250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -298,18 +301,18 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>2379747</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>986440</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>191449</xdr:rowOff>
+      <xdr:rowOff>134829</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="571500" cy="571500"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 2">
+        <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D796ED9A-A7D9-4AC8-B0FF-4A4E9B1F2D4F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12217041-9905-4E4F-BB5D-83DC3DF2D8DF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -325,7 +328,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="18372887" y="479414"/>
+          <a:off x="12316760" y="422794"/>
           <a:ext cx="571500" cy="571500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -638,16 +641,16 @@
   <dimension ref="A1:V328"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="58" customWidth="1"/>
-    <col min="3" max="3" width="28.77734375" customWidth="1"/>
-    <col min="4" max="4" width="67" customWidth="1"/>
-    <col min="5" max="5" width="27.33203125" customWidth="1"/>
-    <col min="6" max="6" width="24.6640625" customWidth="1"/>
+    <col min="2" max="2" width="35.77734375" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" customWidth="1"/>
+    <col min="4" max="4" width="49.21875" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" customWidth="1"/>
+    <col min="6" max="6" width="16.77734375" customWidth="1"/>
     <col min="7" max="7" width="30.6640625" customWidth="1"/>
     <col min="8" max="8" width="26.77734375" customWidth="1"/>
     <col min="9" max="9" width="41.109375" customWidth="1"/>
@@ -674,54 +677,56 @@
       <c r="J2" s="6"/>
     </row>
     <row r="3" spans="1:22" ht="18" x14ac:dyDescent="0.35">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
+      <c r="P3" s="9"/>
+      <c r="Q3" s="9"/>
+    </row>
+    <row r="4" spans="1:22" ht="18" x14ac:dyDescent="0.35">
+      <c r="A4" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="9"/>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A7" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="11"/>
-      <c r="O3" s="11"/>
-      <c r="P3" s="11"/>
-      <c r="Q3" s="11"/>
-    </row>
-    <row r="4" spans="1:22" ht="18" x14ac:dyDescent="0.35">
-      <c r="A4" s="15"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="11"/>
-      <c r="N4" s="11"/>
-      <c r="O4" s="11"/>
-      <c r="P4" s="11"/>
-      <c r="Q4" s="11"/>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A7" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
     </row>
     <row r="8" spans="1:22" ht="18" x14ac:dyDescent="0.35">
       <c r="A8" s="7" t="s">
@@ -743,33 +748,33 @@
         <v>2</v>
       </c>
       <c r="M8" s="1"/>
-      <c r="N8" s="13"/>
-      <c r="O8" s="13"/>
-      <c r="P8" s="13"/>
-      <c r="Q8" s="13"/>
-      <c r="R8" s="13"/>
-      <c r="S8" s="13"/>
-      <c r="T8" s="13"/>
-      <c r="U8" s="13"/>
-      <c r="V8" s="13"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="11"/>
+      <c r="R8" s="11"/>
+      <c r="S8" s="11"/>
+      <c r="T8" s="11"/>
+      <c r="U8" s="11"/>
+      <c r="V8" s="11"/>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A9" s="9"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
+      <c r="A9" s="14"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
       <c r="M9" s="2"/>
-      <c r="N9" s="12"/>
-      <c r="O9" s="12"/>
-      <c r="P9" s="12"/>
-      <c r="Q9" s="12"/>
-      <c r="R9" s="12"/>
-      <c r="S9" s="12"/>
-      <c r="T9" s="12"/>
-      <c r="U9" s="12"/>
-      <c r="V9" s="12"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="10"/>
+      <c r="P9" s="10"/>
+      <c r="Q9" s="10"/>
+      <c r="R9" s="10"/>
+      <c r="S9" s="10"/>
+      <c r="T9" s="10"/>
+      <c r="U9" s="10"/>
+      <c r="V9" s="10"/>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="D10" s="4"/>
@@ -1730,11 +1735,12 @@
     </row>
   </sheetData>
   <autoFilter ref="A8:F8" xr:uid="{DDE16FFB-0DBF-4542-BF2E-0694577CABAA}"/>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="N9:V9"/>
     <mergeCell ref="N8:V8"/>
     <mergeCell ref="A7:F7"/>
-    <mergeCell ref="A3:F4"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A4:F4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -1743,14 +1749,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="33c8bdda-defa-435a-b09b-17c633094ed5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -1759,7 +1757,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100E3D40D7370BE704D9F987D37C7518305" ma:contentTypeVersion="14" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="713a4ab37a2269b86b211ad079bba34f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="33c8bdda-defa-435a-b09b-17c633094ed5" xmlns:ns4="5e78a4f3-a9b1-4fe1-9da0-d43cac8a1c9f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="799d028bd5d959863f471fdad4996989" ns3:_="" ns4:_="">
     <xsd:import namespace="33c8bdda-defa-435a-b09b-17c633094ed5"/>
@@ -1986,24 +1984,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{80F8F01B-42E4-4ED9-9137-CD8DE7B67D7E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="5e78a4f3-a9b1-4fe1-9da0-d43cac8a1c9f"/>
-    <ds:schemaRef ds:uri="33c8bdda-defa-435a-b09b-17c633094ed5"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="33c8bdda-defa-435a-b09b-17c633094ed5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0F7F9947-D4DB-49D0-81FC-207E2ECAB2E1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -2011,7 +2000,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FB6CAFB9-21A0-4331-A882-841105351FBC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2028,4 +2017,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{80F8F01B-42E4-4ED9-9137-CD8DE7B67D7E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="5e78a4f3-a9b1-4fe1-9da0-d43cac8a1c9f"/>
+    <ds:schemaRef ds:uri="33c8bdda-defa-435a-b09b-17c633094ed5"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/public/Plantillas/Reporte-Proyectos.xlsx
+++ b/public/Plantillas/Reporte-Proyectos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sebas\OneDrive\Escritorio\TesisVersionBeta\Tesis_Final_Version\public\Plantillas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F099C97-86B2-4880-8CA0-B8DF18AE54C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1189F774-EE41-4B7B-90BB-B58B45A1B08D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20610" yWindow="540" windowWidth="20730" windowHeight="11040" xr2:uid="{E868ECBF-1759-4E94-BEB5-846D8DEB5231}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E868ECBF-1759-4E94-BEB5-846D8DEB5231}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -63,7 +63,7 @@
     <t>UNIVERSIDAD DE LAS FUERZAS ARMADAS - ESPE SEDE SANTO DOMINGO</t>
   </si>
   <si>
-    <t>CARRERA DE INGENIERÍA EN TECNOLOGÍAS DE LA INFORMACIÓN</t>
+    <t>CARRERA DE TECNOLOGÍAS DE LA INFORMACIÓN</t>
   </si>
 </sst>
 </file>
@@ -215,6 +215,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -226,12 +232,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -291,45 +291,6 @@
         <a:xfrm>
           <a:off x="515192" y="446833"/>
           <a:ext cx="1428750" cy="476250"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>986440</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>134829</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="571500" cy="571500"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12217041-9905-4E4F-BB5D-83DC3DF2D8DF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12316760" y="422794"/>
-          <a:ext cx="571500" cy="571500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -641,7 +602,7 @@
   <dimension ref="A1:V328"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -677,14 +638,14 @@
       <c r="J2" s="6"/>
     </row>
     <row r="3" spans="1:22" ht="18" x14ac:dyDescent="0.35">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
       <c r="G3" s="9"/>
       <c r="H3" s="9"/>
       <c r="I3" s="9"/>
@@ -698,14 +659,14 @@
       <c r="Q3" s="9"/>
     </row>
     <row r="4" spans="1:22" ht="18" x14ac:dyDescent="0.35">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
       <c r="G4" s="9"/>
       <c r="H4" s="9"/>
       <c r="I4" s="9"/>
@@ -719,14 +680,14 @@
       <c r="Q4" s="9"/>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
     </row>
     <row r="8" spans="1:22" ht="18" x14ac:dyDescent="0.35">
       <c r="A8" s="7" t="s">
@@ -748,33 +709,33 @@
         <v>2</v>
       </c>
       <c r="M8" s="1"/>
-      <c r="N8" s="11"/>
-      <c r="O8" s="11"/>
-      <c r="P8" s="11"/>
-      <c r="Q8" s="11"/>
-      <c r="R8" s="11"/>
-      <c r="S8" s="11"/>
-      <c r="T8" s="11"/>
-      <c r="U8" s="11"/>
-      <c r="V8" s="11"/>
+      <c r="N8" s="13"/>
+      <c r="O8" s="13"/>
+      <c r="P8" s="13"/>
+      <c r="Q8" s="13"/>
+      <c r="R8" s="13"/>
+      <c r="S8" s="13"/>
+      <c r="T8" s="13"/>
+      <c r="U8" s="13"/>
+      <c r="V8" s="13"/>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A9" s="14"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
+      <c r="A9" s="10"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
       <c r="M9" s="2"/>
-      <c r="N9" s="10"/>
-      <c r="O9" s="10"/>
-      <c r="P9" s="10"/>
-      <c r="Q9" s="10"/>
-      <c r="R9" s="10"/>
-      <c r="S9" s="10"/>
-      <c r="T9" s="10"/>
-      <c r="U9" s="10"/>
-      <c r="V9" s="10"/>
+      <c r="N9" s="12"/>
+      <c r="O9" s="12"/>
+      <c r="P9" s="12"/>
+      <c r="Q9" s="12"/>
+      <c r="R9" s="12"/>
+      <c r="S9" s="12"/>
+      <c r="T9" s="12"/>
+      <c r="U9" s="12"/>
+      <c r="V9" s="12"/>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="D10" s="4"/>
@@ -1749,15 +1710,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100E3D40D7370BE704D9F987D37C7518305" ma:contentTypeVersion="14" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="713a4ab37a2269b86b211ad079bba34f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="33c8bdda-defa-435a-b09b-17c633094ed5" xmlns:ns4="5e78a4f3-a9b1-4fe1-9da0-d43cac8a1c9f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="799d028bd5d959863f471fdad4996989" ns3:_="" ns4:_="">
     <xsd:import namespace="33c8bdda-defa-435a-b09b-17c633094ed5"/>
@@ -1984,6 +1936,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -1993,14 +1954,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0F7F9947-D4DB-49D0-81FC-207E2ECAB2E1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FB6CAFB9-21A0-4331-A882-841105351FBC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2015,6 +1968,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0F7F9947-D4DB-49D0-81FC-207E2ECAB2E1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/public/Plantillas/Reporte-Proyectos.xlsx
+++ b/public/Plantillas/Reporte-Proyectos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20412"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sebas\OneDrive\Escritorio\TesisVersionBeta\Tesis_Final_Version\public\Plantillas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tesis_version\tesis2\Tesis_Final_Version\public\Plantillas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{316E42AA-1795-4D14-9F58-EBBA8F517350}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0677BFE2-2E44-40E5-8E9E-C3FAEFFB205E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E868ECBF-1759-4E94-BEB5-846D8DEB5231}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" xr2:uid="{E868ECBF-1759-4E94-BEB5-846D8DEB5231}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -220,6 +220,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -231,12 +237,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -265,20 +265,25 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>515192</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1794245</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>158868</xdr:rowOff>
+      <xdr:rowOff>177209</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1428750" cy="476250"/>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>265815</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>11077</xdr:rowOff>
+    </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
+        <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2DDB74C-0B80-414E-A39B-3572E8822E16}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F35783BA-DC71-4D5D-A2B2-95A28C244F8F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -287,15 +292,21 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="515192" y="446833"/>
-          <a:ext cx="1428750" cy="476250"/>
+          <a:off x="2558460" y="476250"/>
+          <a:ext cx="1694564" cy="553780"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -303,7 +314,7 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:oneCellAnchor>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -607,32 +618,32 @@
   <dimension ref="A1:Y328"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="48.33203125" customWidth="1"/>
-    <col min="3" max="3" width="35.6640625" customWidth="1"/>
-    <col min="4" max="4" width="22.88671875" customWidth="1"/>
-    <col min="5" max="5" width="49.33203125" customWidth="1"/>
-    <col min="6" max="8" width="18.6640625" customWidth="1"/>
+    <col min="2" max="2" width="48.28515625" customWidth="1"/>
+    <col min="3" max="3" width="35.7109375" customWidth="1"/>
+    <col min="4" max="4" width="22.85546875" customWidth="1"/>
+    <col min="5" max="5" width="49.28515625" customWidth="1"/>
+    <col min="6" max="8" width="18.7109375" customWidth="1"/>
     <col min="9" max="9" width="22" customWidth="1"/>
-    <col min="10" max="10" width="30.6640625" customWidth="1"/>
-    <col min="11" max="11" width="26.6640625" customWidth="1"/>
-    <col min="12" max="12" width="41.109375" customWidth="1"/>
-    <col min="13" max="13" width="30.6640625" customWidth="1"/>
-    <col min="14" max="14" width="31.33203125" customWidth="1"/>
-    <col min="15" max="15" width="25.6640625" customWidth="1"/>
-    <col min="16" max="16" width="38.33203125" customWidth="1"/>
-    <col min="17" max="17" width="25.44140625" customWidth="1"/>
-    <col min="25" max="25" width="28.6640625" customWidth="1"/>
+    <col min="10" max="10" width="30.7109375" customWidth="1"/>
+    <col min="11" max="11" width="26.7109375" customWidth="1"/>
+    <col min="12" max="12" width="41.140625" customWidth="1"/>
+    <col min="13" max="13" width="30.7109375" customWidth="1"/>
+    <col min="14" max="14" width="31.28515625" customWidth="1"/>
+    <col min="15" max="15" width="25.7109375" customWidth="1"/>
+    <col min="16" max="16" width="38.28515625" customWidth="1"/>
+    <col min="17" max="17" width="25.42578125" customWidth="1"/>
+    <col min="25" max="25" width="28.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="22.8" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
       <c r="Q1" s="3"/>
     </row>
-    <row r="2" spans="1:25" ht="18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" ht="18" x14ac:dyDescent="0.25">
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
@@ -646,18 +657,18 @@
       <c r="L2" s="4"/>
       <c r="M2" s="5"/>
     </row>
-    <row r="3" spans="1:25" ht="18" x14ac:dyDescent="0.35">
-      <c r="A3" s="14" t="s">
+    <row r="3" spans="1:25" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A3" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
       <c r="L3" s="8"/>
@@ -670,18 +681,18 @@
       <c r="S3" s="8"/>
       <c r="T3" s="8"/>
     </row>
-    <row r="4" spans="1:25" ht="18" x14ac:dyDescent="0.35">
-      <c r="A4" s="14" t="s">
+    <row r="4" spans="1:25" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A4" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
       <c r="J4" s="8"/>
       <c r="K4" s="8"/>
       <c r="L4" s="8"/>
@@ -694,20 +705,20 @@
       <c r="S4" s="8"/>
       <c r="T4" s="8"/>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A7" s="13" t="s">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A7" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-    </row>
-    <row r="8" spans="1:25" ht="18" x14ac:dyDescent="0.35">
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+    </row>
+    <row r="8" spans="1:25" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>3</v>
       </c>
@@ -736,38 +747,38 @@
         <v>11</v>
       </c>
       <c r="P8" s="1"/>
-      <c r="Q8" s="12"/>
-      <c r="R8" s="12"/>
-      <c r="S8" s="12"/>
-      <c r="T8" s="12"/>
-      <c r="U8" s="12"/>
-      <c r="V8" s="12"/>
-      <c r="W8" s="12"/>
-      <c r="X8" s="12"/>
-      <c r="Y8" s="12"/>
-    </row>
-    <row r="9" spans="1:25" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="15"/>
-      <c r="B9" s="16"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
+      <c r="Q8" s="14"/>
+      <c r="R8" s="14"/>
+      <c r="S8" s="14"/>
+      <c r="T8" s="14"/>
+      <c r="U8" s="14"/>
+      <c r="V8" s="14"/>
+      <c r="W8" s="14"/>
+      <c r="X8" s="14"/>
+      <c r="Y8" s="14"/>
+    </row>
+    <row r="9" spans="1:25" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="11"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
       <c r="P9" s="2"/>
-      <c r="Q9" s="11"/>
-      <c r="R9" s="11"/>
-      <c r="S9" s="11"/>
-      <c r="T9" s="11"/>
-      <c r="U9" s="11"/>
-      <c r="V9" s="11"/>
-      <c r="W9" s="11"/>
-      <c r="X9" s="11"/>
-      <c r="Y9" s="11"/>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Q9" s="13"/>
+      <c r="R9" s="13"/>
+      <c r="S9" s="13"/>
+      <c r="T9" s="13"/>
+      <c r="U9" s="13"/>
+      <c r="V9" s="13"/>
+      <c r="W9" s="13"/>
+      <c r="X9" s="13"/>
+      <c r="Y9" s="13"/>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -778,7 +789,7 @@
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -789,7 +800,7 @@
       <c r="H11" s="9"/>
       <c r="I11" s="9"/>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -800,7 +811,7 @@
       <c r="H12" s="9"/>
       <c r="I12" s="9"/>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -811,7 +822,7 @@
       <c r="H13" s="9"/>
       <c r="I13" s="9"/>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -822,7 +833,7 @@
       <c r="H14" s="9"/>
       <c r="I14" s="9"/>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -833,7 +844,7 @@
       <c r="H15" s="9"/>
       <c r="I15" s="9"/>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -844,7 +855,7 @@
       <c r="H16" s="9"/>
       <c r="I16" s="9"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="9"/>
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
@@ -855,7 +866,7 @@
       <c r="H17" s="9"/>
       <c r="I17" s="9"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="9"/>
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
@@ -866,7 +877,7 @@
       <c r="H18" s="9"/>
       <c r="I18" s="9"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="9"/>
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
@@ -877,7 +888,7 @@
       <c r="H19" s="9"/>
       <c r="I19" s="9"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="9"/>
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
@@ -888,7 +899,7 @@
       <c r="H20" s="9"/>
       <c r="I20" s="9"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="9"/>
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
@@ -899,7 +910,7 @@
       <c r="H21" s="9"/>
       <c r="I21" s="9"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="9"/>
       <c r="B22" s="9"/>
       <c r="C22" s="9"/>
@@ -910,7 +921,7 @@
       <c r="H22" s="9"/>
       <c r="I22" s="9"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="9"/>
       <c r="B23" s="9"/>
       <c r="C23" s="9"/>
@@ -921,7 +932,7 @@
       <c r="H23" s="9"/>
       <c r="I23" s="9"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="9"/>
       <c r="B24" s="9"/>
       <c r="C24" s="9"/>
@@ -932,7 +943,7 @@
       <c r="H24" s="9"/>
       <c r="I24" s="9"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="9"/>
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
@@ -943,7 +954,7 @@
       <c r="H25" s="9"/>
       <c r="I25" s="9"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="9"/>
       <c r="B26" s="9"/>
       <c r="C26" s="9"/>
@@ -954,7 +965,7 @@
       <c r="H26" s="9"/>
       <c r="I26" s="9"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="9"/>
       <c r="B27" s="9"/>
       <c r="C27" s="9"/>
@@ -965,7 +976,7 @@
       <c r="H27" s="9"/>
       <c r="I27" s="9"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="9"/>
       <c r="B28" s="9"/>
       <c r="C28" s="9"/>
@@ -976,7 +987,7 @@
       <c r="H28" s="9"/>
       <c r="I28" s="9"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="9"/>
       <c r="B29" s="9"/>
       <c r="C29" s="9"/>
@@ -987,7 +998,7 @@
       <c r="H29" s="9"/>
       <c r="I29" s="9"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="9"/>
       <c r="B30" s="9"/>
       <c r="C30" s="9"/>
@@ -998,7 +1009,7 @@
       <c r="H30" s="9"/>
       <c r="I30" s="9"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="9"/>
       <c r="B31" s="9"/>
       <c r="C31" s="9"/>
@@ -1009,7 +1020,7 @@
       <c r="H31" s="9"/>
       <c r="I31" s="9"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="9"/>
       <c r="B32" s="9"/>
       <c r="C32" s="9"/>
@@ -1020,7 +1031,7 @@
       <c r="H32" s="9"/>
       <c r="I32" s="9"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="9"/>
       <c r="B33" s="9"/>
       <c r="C33" s="9"/>
@@ -1031,7 +1042,7 @@
       <c r="H33" s="9"/>
       <c r="I33" s="9"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="9"/>
       <c r="B34" s="9"/>
       <c r="C34" s="9"/>
@@ -1042,7 +1053,7 @@
       <c r="H34" s="9"/>
       <c r="I34" s="9"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="9"/>
       <c r="B35" s="9"/>
       <c r="C35" s="9"/>
@@ -1053,7 +1064,7 @@
       <c r="H35" s="9"/>
       <c r="I35" s="9"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="9"/>
       <c r="B36" s="9"/>
       <c r="C36" s="9"/>
@@ -1064,7 +1075,7 @@
       <c r="H36" s="9"/>
       <c r="I36" s="9"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="9"/>
       <c r="B37" s="9"/>
       <c r="C37" s="9"/>
@@ -1075,7 +1086,7 @@
       <c r="H37" s="9"/>
       <c r="I37" s="9"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="9"/>
       <c r="B38" s="9"/>
       <c r="C38" s="9"/>
@@ -1086,7 +1097,7 @@
       <c r="H38" s="9"/>
       <c r="I38" s="9"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="9"/>
       <c r="B39" s="9"/>
       <c r="C39" s="9"/>
@@ -1097,7 +1108,7 @@
       <c r="H39" s="9"/>
       <c r="I39" s="9"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="9"/>
       <c r="B40" s="9"/>
       <c r="C40" s="9"/>
@@ -1108,7 +1119,7 @@
       <c r="H40" s="9"/>
       <c r="I40" s="9"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="9"/>
       <c r="B41" s="9"/>
       <c r="C41" s="9"/>
@@ -1119,7 +1130,7 @@
       <c r="H41" s="9"/>
       <c r="I41" s="9"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="9"/>
       <c r="B42" s="9"/>
       <c r="C42" s="9"/>
@@ -1130,7 +1141,7 @@
       <c r="H42" s="9"/>
       <c r="I42" s="9"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="9"/>
       <c r="B43" s="9"/>
       <c r="C43" s="9"/>
@@ -1141,7 +1152,7 @@
       <c r="H43" s="9"/>
       <c r="I43" s="9"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="9"/>
       <c r="B44" s="9"/>
       <c r="C44" s="9"/>
@@ -1152,7 +1163,7 @@
       <c r="H44" s="9"/>
       <c r="I44" s="9"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="9"/>
       <c r="B45" s="9"/>
       <c r="C45" s="9"/>
@@ -1163,7 +1174,7 @@
       <c r="H45" s="9"/>
       <c r="I45" s="9"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="9"/>
       <c r="B46" s="9"/>
       <c r="C46" s="9"/>
@@ -1174,7 +1185,7 @@
       <c r="H46" s="9"/>
       <c r="I46" s="9"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="9"/>
       <c r="B47" s="9"/>
       <c r="C47" s="9"/>
@@ -1185,7 +1196,7 @@
       <c r="H47" s="9"/>
       <c r="I47" s="9"/>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="9"/>
       <c r="B48" s="9"/>
       <c r="C48" s="9"/>
@@ -1196,7 +1207,7 @@
       <c r="H48" s="9"/>
       <c r="I48" s="9"/>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="9"/>
       <c r="B49" s="9"/>
       <c r="C49" s="9"/>
@@ -1207,7 +1218,7 @@
       <c r="H49" s="9"/>
       <c r="I49" s="9"/>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="9"/>
       <c r="B50" s="9"/>
       <c r="C50" s="9"/>
@@ -1218,7 +1229,7 @@
       <c r="H50" s="9"/>
       <c r="I50" s="9"/>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="9"/>
       <c r="B51" s="9"/>
       <c r="C51" s="9"/>
@@ -1229,7 +1240,7 @@
       <c r="H51" s="9"/>
       <c r="I51" s="9"/>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="9"/>
       <c r="B52" s="9"/>
       <c r="C52" s="9"/>
@@ -1240,7 +1251,7 @@
       <c r="H52" s="9"/>
       <c r="I52" s="9"/>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="9"/>
       <c r="B53" s="9"/>
       <c r="C53" s="9"/>
@@ -1251,7 +1262,7 @@
       <c r="H53" s="9"/>
       <c r="I53" s="9"/>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="9"/>
       <c r="B54" s="9"/>
       <c r="C54" s="9"/>
@@ -1262,7 +1273,7 @@
       <c r="H54" s="9"/>
       <c r="I54" s="9"/>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="9"/>
       <c r="B55" s="9"/>
       <c r="C55" s="9"/>
@@ -1273,7 +1284,7 @@
       <c r="H55" s="9"/>
       <c r="I55" s="9"/>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="9"/>
       <c r="B56" s="9"/>
       <c r="C56" s="9"/>
@@ -1284,7 +1295,7 @@
       <c r="H56" s="9"/>
       <c r="I56" s="9"/>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="9"/>
       <c r="B57" s="9"/>
       <c r="C57" s="9"/>
@@ -1295,7 +1306,7 @@
       <c r="H57" s="9"/>
       <c r="I57" s="9"/>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="9"/>
       <c r="B58" s="9"/>
       <c r="C58" s="9"/>
@@ -1306,7 +1317,7 @@
       <c r="H58" s="9"/>
       <c r="I58" s="9"/>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="9"/>
       <c r="B59" s="9"/>
       <c r="C59" s="9"/>
@@ -1317,7 +1328,7 @@
       <c r="H59" s="9"/>
       <c r="I59" s="9"/>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="9"/>
       <c r="B60" s="9"/>
       <c r="C60" s="9"/>
@@ -1328,7 +1339,7 @@
       <c r="H60" s="9"/>
       <c r="I60" s="9"/>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="9"/>
       <c r="B61" s="9"/>
       <c r="C61" s="9"/>
@@ -1339,7 +1350,7 @@
       <c r="H61" s="9"/>
       <c r="I61" s="9"/>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="9"/>
       <c r="B62" s="9"/>
       <c r="C62" s="9"/>
@@ -1350,7 +1361,7 @@
       <c r="H62" s="9"/>
       <c r="I62" s="9"/>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="9"/>
       <c r="B63" s="9"/>
       <c r="C63" s="9"/>
@@ -1361,7 +1372,7 @@
       <c r="H63" s="9"/>
       <c r="I63" s="9"/>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="9"/>
       <c r="B64" s="9"/>
       <c r="C64" s="9"/>
@@ -1372,7 +1383,7 @@
       <c r="H64" s="9"/>
       <c r="I64" s="9"/>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="9"/>
       <c r="B65" s="9"/>
       <c r="C65" s="9"/>
@@ -1383,7 +1394,7 @@
       <c r="H65" s="9"/>
       <c r="I65" s="9"/>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="9"/>
       <c r="B66" s="9"/>
       <c r="C66" s="9"/>
@@ -1394,7 +1405,7 @@
       <c r="H66" s="9"/>
       <c r="I66" s="9"/>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="9"/>
       <c r="B67" s="9"/>
       <c r="C67" s="9"/>
@@ -1405,7 +1416,7 @@
       <c r="H67" s="9"/>
       <c r="I67" s="9"/>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="9"/>
       <c r="B68" s="9"/>
       <c r="C68" s="9"/>
@@ -1416,7 +1427,7 @@
       <c r="H68" s="9"/>
       <c r="I68" s="9"/>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="9"/>
       <c r="B69" s="9"/>
       <c r="C69" s="9"/>
@@ -1427,7 +1438,7 @@
       <c r="H69" s="9"/>
       <c r="I69" s="9"/>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="9"/>
       <c r="B70" s="9"/>
       <c r="C70" s="9"/>
@@ -1438,7 +1449,7 @@
       <c r="H70" s="9"/>
       <c r="I70" s="9"/>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="9"/>
       <c r="B71" s="9"/>
       <c r="C71" s="9"/>
@@ -1449,7 +1460,7 @@
       <c r="H71" s="9"/>
       <c r="I71" s="9"/>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="9"/>
       <c r="B72" s="9"/>
       <c r="C72" s="9"/>
@@ -1460,7 +1471,7 @@
       <c r="H72" s="9"/>
       <c r="I72" s="9"/>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" s="9"/>
       <c r="B73" s="9"/>
       <c r="C73" s="9"/>
@@ -1471,7 +1482,7 @@
       <c r="H73" s="9"/>
       <c r="I73" s="9"/>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="9"/>
       <c r="B74" s="9"/>
       <c r="C74" s="9"/>
@@ -1482,7 +1493,7 @@
       <c r="H74" s="9"/>
       <c r="I74" s="9"/>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" s="9"/>
       <c r="B75" s="9"/>
       <c r="C75" s="9"/>
@@ -1493,7 +1504,7 @@
       <c r="H75" s="9"/>
       <c r="I75" s="9"/>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" s="9"/>
       <c r="B76" s="9"/>
       <c r="C76" s="9"/>
@@ -1504,7 +1515,7 @@
       <c r="H76" s="9"/>
       <c r="I76" s="9"/>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" s="9"/>
       <c r="B77" s="9"/>
       <c r="C77" s="9"/>
@@ -1515,7 +1526,7 @@
       <c r="H77" s="9"/>
       <c r="I77" s="9"/>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" s="9"/>
       <c r="B78" s="9"/>
       <c r="C78" s="9"/>
@@ -1526,7 +1537,7 @@
       <c r="H78" s="9"/>
       <c r="I78" s="9"/>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" s="9"/>
       <c r="B79" s="9"/>
       <c r="C79" s="9"/>
@@ -1537,7 +1548,7 @@
       <c r="H79" s="9"/>
       <c r="I79" s="9"/>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" s="9"/>
       <c r="B80" s="9"/>
       <c r="C80" s="9"/>
@@ -1548,7 +1559,7 @@
       <c r="H80" s="9"/>
       <c r="I80" s="9"/>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" s="9"/>
       <c r="B81" s="9"/>
       <c r="C81" s="9"/>
@@ -1559,7 +1570,7 @@
       <c r="H81" s="9"/>
       <c r="I81" s="9"/>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" s="9"/>
       <c r="B82" s="9"/>
       <c r="C82" s="9"/>
@@ -1570,7 +1581,7 @@
       <c r="H82" s="9"/>
       <c r="I82" s="9"/>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" s="9"/>
       <c r="B83" s="9"/>
       <c r="C83" s="9"/>
@@ -1581,7 +1592,7 @@
       <c r="H83" s="9"/>
       <c r="I83" s="9"/>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" s="9"/>
       <c r="B84" s="9"/>
       <c r="C84" s="9"/>
@@ -1592,7 +1603,7 @@
       <c r="H84" s="9"/>
       <c r="I84" s="9"/>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" s="9"/>
       <c r="B85" s="9"/>
       <c r="C85" s="9"/>
@@ -1603,7 +1614,7 @@
       <c r="H85" s="9"/>
       <c r="I85" s="9"/>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" s="9"/>
       <c r="B86" s="9"/>
       <c r="C86" s="9"/>
@@ -1614,7 +1625,7 @@
       <c r="H86" s="9"/>
       <c r="I86" s="9"/>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" s="9"/>
       <c r="B87" s="9"/>
       <c r="C87" s="9"/>
@@ -1625,7 +1636,7 @@
       <c r="H87" s="9"/>
       <c r="I87" s="9"/>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" s="9"/>
       <c r="B88" s="9"/>
       <c r="C88" s="9"/>
@@ -1636,7 +1647,7 @@
       <c r="H88" s="9"/>
       <c r="I88" s="9"/>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" s="9"/>
       <c r="B89" s="9"/>
       <c r="C89" s="9"/>
@@ -1647,7 +1658,7 @@
       <c r="H89" s="9"/>
       <c r="I89" s="9"/>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" s="9"/>
       <c r="B90" s="9"/>
       <c r="C90" s="9"/>
@@ -1658,7 +1669,7 @@
       <c r="H90" s="9"/>
       <c r="I90" s="9"/>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" s="9"/>
       <c r="B91" s="9"/>
       <c r="C91" s="9"/>
@@ -1669,7 +1680,7 @@
       <c r="H91" s="9"/>
       <c r="I91" s="9"/>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" s="9"/>
       <c r="B92" s="9"/>
       <c r="C92" s="9"/>
@@ -1680,7 +1691,7 @@
       <c r="H92" s="9"/>
       <c r="I92" s="9"/>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" s="9"/>
       <c r="B93" s="9"/>
       <c r="C93" s="9"/>
@@ -1691,7 +1702,7 @@
       <c r="H93" s="9"/>
       <c r="I93" s="9"/>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" s="9"/>
       <c r="B94" s="9"/>
       <c r="C94" s="9"/>
@@ -1702,7 +1713,7 @@
       <c r="H94" s="9"/>
       <c r="I94" s="9"/>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" s="9"/>
       <c r="B95" s="9"/>
       <c r="C95" s="9"/>
@@ -1713,7 +1724,7 @@
       <c r="H95" s="9"/>
       <c r="I95" s="9"/>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" s="9"/>
       <c r="B96" s="9"/>
       <c r="C96" s="9"/>
@@ -1724,7 +1735,7 @@
       <c r="H96" s="9"/>
       <c r="I96" s="9"/>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" s="9"/>
       <c r="B97" s="9"/>
       <c r="C97" s="9"/>
@@ -1735,7 +1746,7 @@
       <c r="H97" s="9"/>
       <c r="I97" s="9"/>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" s="9"/>
       <c r="B98" s="9"/>
       <c r="C98" s="9"/>
@@ -1746,7 +1757,7 @@
       <c r="H98" s="9"/>
       <c r="I98" s="9"/>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" s="9"/>
       <c r="B99" s="9"/>
       <c r="C99" s="9"/>
@@ -1757,7 +1768,7 @@
       <c r="H99" s="9"/>
       <c r="I99" s="9"/>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" s="9"/>
       <c r="B100" s="9"/>
       <c r="C100" s="9"/>
@@ -1768,7 +1779,7 @@
       <c r="H100" s="9"/>
       <c r="I100" s="9"/>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" s="9"/>
       <c r="B101" s="9"/>
       <c r="C101" s="9"/>
@@ -1779,7 +1790,7 @@
       <c r="H101" s="9"/>
       <c r="I101" s="9"/>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" s="9"/>
       <c r="B102" s="9"/>
       <c r="C102" s="9"/>
@@ -1790,7 +1801,7 @@
       <c r="H102" s="9"/>
       <c r="I102" s="9"/>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" s="9"/>
       <c r="B103" s="9"/>
       <c r="C103" s="9"/>
@@ -1801,7 +1812,7 @@
       <c r="H103" s="9"/>
       <c r="I103" s="9"/>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" s="9"/>
       <c r="B104" s="9"/>
       <c r="C104" s="9"/>
@@ -1812,7 +1823,7 @@
       <c r="H104" s="9"/>
       <c r="I104" s="9"/>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" s="9"/>
       <c r="B105" s="9"/>
       <c r="C105" s="9"/>
@@ -1823,7 +1834,7 @@
       <c r="H105" s="9"/>
       <c r="I105" s="9"/>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" s="9"/>
       <c r="B106" s="9"/>
       <c r="C106" s="9"/>
@@ -1834,7 +1845,7 @@
       <c r="H106" s="9"/>
       <c r="I106" s="9"/>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" s="9"/>
       <c r="B107" s="9"/>
       <c r="C107" s="9"/>
@@ -1845,7 +1856,7 @@
       <c r="H107" s="9"/>
       <c r="I107" s="9"/>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" s="9"/>
       <c r="B108" s="9"/>
       <c r="C108" s="9"/>
@@ -1856,7 +1867,7 @@
       <c r="H108" s="9"/>
       <c r="I108" s="9"/>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" s="9"/>
       <c r="B109" s="9"/>
       <c r="C109" s="9"/>
@@ -1867,7 +1878,7 @@
       <c r="H109" s="9"/>
       <c r="I109" s="9"/>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" s="9"/>
       <c r="B110" s="9"/>
       <c r="C110" s="9"/>
@@ -1878,7 +1889,7 @@
       <c r="H110" s="9"/>
       <c r="I110" s="9"/>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" s="9"/>
       <c r="B111" s="9"/>
       <c r="C111" s="9"/>
@@ -1889,7 +1900,7 @@
       <c r="H111" s="9"/>
       <c r="I111" s="9"/>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" s="9"/>
       <c r="B112" s="9"/>
       <c r="C112" s="9"/>
@@ -1900,7 +1911,7 @@
       <c r="H112" s="9"/>
       <c r="I112" s="9"/>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" s="9"/>
       <c r="B113" s="9"/>
       <c r="C113" s="9"/>
@@ -1911,7 +1922,7 @@
       <c r="H113" s="9"/>
       <c r="I113" s="9"/>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" s="9"/>
       <c r="B114" s="9"/>
       <c r="C114" s="9"/>
@@ -1922,7 +1933,7 @@
       <c r="H114" s="9"/>
       <c r="I114" s="9"/>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" s="9"/>
       <c r="B115" s="9"/>
       <c r="C115" s="9"/>
@@ -1933,7 +1944,7 @@
       <c r="H115" s="9"/>
       <c r="I115" s="9"/>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" s="9"/>
       <c r="B116" s="9"/>
       <c r="C116" s="9"/>
@@ -1944,7 +1955,7 @@
       <c r="H116" s="9"/>
       <c r="I116" s="9"/>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" s="9"/>
       <c r="B117" s="9"/>
       <c r="C117" s="9"/>
@@ -1955,7 +1966,7 @@
       <c r="H117" s="9"/>
       <c r="I117" s="9"/>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" s="9"/>
       <c r="B118" s="9"/>
       <c r="C118" s="9"/>
@@ -1966,7 +1977,7 @@
       <c r="H118" s="9"/>
       <c r="I118" s="9"/>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" s="9"/>
       <c r="B119" s="9"/>
       <c r="C119" s="9"/>
@@ -1977,7 +1988,7 @@
       <c r="H119" s="9"/>
       <c r="I119" s="9"/>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" s="9"/>
       <c r="B120" s="9"/>
       <c r="C120" s="9"/>
@@ -1988,7 +1999,7 @@
       <c r="H120" s="9"/>
       <c r="I120" s="9"/>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" s="9"/>
       <c r="B121" s="9"/>
       <c r="C121" s="9"/>
@@ -1999,7 +2010,7 @@
       <c r="H121" s="9"/>
       <c r="I121" s="9"/>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" s="9"/>
       <c r="B122" s="9"/>
       <c r="C122" s="9"/>
@@ -2010,7 +2021,7 @@
       <c r="H122" s="9"/>
       <c r="I122" s="9"/>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" s="9"/>
       <c r="B123" s="9"/>
       <c r="C123" s="9"/>
@@ -2021,7 +2032,7 @@
       <c r="H123" s="9"/>
       <c r="I123" s="9"/>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" s="9"/>
       <c r="B124" s="9"/>
       <c r="C124" s="9"/>
@@ -2032,7 +2043,7 @@
       <c r="H124" s="9"/>
       <c r="I124" s="9"/>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" s="9"/>
       <c r="B125" s="9"/>
       <c r="C125" s="9"/>
@@ -2043,7 +2054,7 @@
       <c r="H125" s="9"/>
       <c r="I125" s="9"/>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126" s="9"/>
       <c r="B126" s="9"/>
       <c r="C126" s="9"/>
@@ -2054,7 +2065,7 @@
       <c r="H126" s="9"/>
       <c r="I126" s="9"/>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" s="9"/>
       <c r="B127" s="9"/>
       <c r="C127" s="9"/>
@@ -2065,7 +2076,7 @@
       <c r="H127" s="9"/>
       <c r="I127" s="9"/>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128" s="9"/>
       <c r="B128" s="9"/>
       <c r="C128" s="9"/>
@@ -2076,7 +2087,7 @@
       <c r="H128" s="9"/>
       <c r="I128" s="9"/>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129" s="9"/>
       <c r="B129" s="9"/>
       <c r="C129" s="9"/>
@@ -2087,7 +2098,7 @@
       <c r="H129" s="9"/>
       <c r="I129" s="9"/>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130" s="9"/>
       <c r="B130" s="9"/>
       <c r="C130" s="9"/>
@@ -2098,7 +2109,7 @@
       <c r="H130" s="9"/>
       <c r="I130" s="9"/>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131" s="9"/>
       <c r="B131" s="9"/>
       <c r="C131" s="9"/>
@@ -2109,7 +2120,7 @@
       <c r="H131" s="9"/>
       <c r="I131" s="9"/>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132" s="9"/>
       <c r="B132" s="9"/>
       <c r="C132" s="9"/>
@@ -2120,7 +2131,7 @@
       <c r="H132" s="9"/>
       <c r="I132" s="9"/>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133" s="9"/>
       <c r="B133" s="9"/>
       <c r="C133" s="9"/>
@@ -2131,7 +2142,7 @@
       <c r="H133" s="9"/>
       <c r="I133" s="9"/>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134" s="9"/>
       <c r="B134" s="9"/>
       <c r="C134" s="9"/>
@@ -2142,7 +2153,7 @@
       <c r="H134" s="9"/>
       <c r="I134" s="9"/>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135" s="9"/>
       <c r="B135" s="9"/>
       <c r="C135" s="9"/>
@@ -2153,7 +2164,7 @@
       <c r="H135" s="9"/>
       <c r="I135" s="9"/>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136" s="9"/>
       <c r="B136" s="9"/>
       <c r="C136" s="9"/>
@@ -2164,7 +2175,7 @@
       <c r="H136" s="9"/>
       <c r="I136" s="9"/>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137" s="9"/>
       <c r="B137" s="9"/>
       <c r="C137" s="9"/>
@@ -2175,7 +2186,7 @@
       <c r="H137" s="9"/>
       <c r="I137" s="9"/>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138" s="9"/>
       <c r="B138" s="9"/>
       <c r="C138" s="9"/>
@@ -2186,7 +2197,7 @@
       <c r="H138" s="9"/>
       <c r="I138" s="9"/>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139" s="9"/>
       <c r="B139" s="9"/>
       <c r="C139" s="9"/>
@@ -2197,7 +2208,7 @@
       <c r="H139" s="9"/>
       <c r="I139" s="9"/>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" s="9"/>
       <c r="B140" s="9"/>
       <c r="C140" s="9"/>
@@ -2208,7 +2219,7 @@
       <c r="H140" s="9"/>
       <c r="I140" s="9"/>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" s="9"/>
       <c r="B141" s="9"/>
       <c r="C141" s="9"/>
@@ -2219,7 +2230,7 @@
       <c r="H141" s="9"/>
       <c r="I141" s="9"/>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142" s="9"/>
       <c r="B142" s="9"/>
       <c r="C142" s="9"/>
@@ -2230,7 +2241,7 @@
       <c r="H142" s="9"/>
       <c r="I142" s="9"/>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143" s="9"/>
       <c r="B143" s="9"/>
       <c r="C143" s="9"/>
@@ -2241,7 +2252,7 @@
       <c r="H143" s="9"/>
       <c r="I143" s="9"/>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144" s="9"/>
       <c r="B144" s="9"/>
       <c r="C144" s="9"/>
@@ -2252,7 +2263,7 @@
       <c r="H144" s="9"/>
       <c r="I144" s="9"/>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145" s="9"/>
       <c r="B145" s="9"/>
       <c r="C145" s="9"/>
@@ -2263,7 +2274,7 @@
       <c r="H145" s="9"/>
       <c r="I145" s="9"/>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146" s="9"/>
       <c r="B146" s="9"/>
       <c r="C146" s="9"/>
@@ -2274,7 +2285,7 @@
       <c r="H146" s="9"/>
       <c r="I146" s="9"/>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147" s="9"/>
       <c r="B147" s="9"/>
       <c r="C147" s="9"/>
@@ -2285,7 +2296,7 @@
       <c r="H147" s="9"/>
       <c r="I147" s="9"/>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148" s="9"/>
       <c r="B148" s="9"/>
       <c r="C148" s="9"/>
@@ -2296,7 +2307,7 @@
       <c r="H148" s="9"/>
       <c r="I148" s="9"/>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149" s="9"/>
       <c r="B149" s="9"/>
       <c r="C149" s="9"/>
@@ -2307,7 +2318,7 @@
       <c r="H149" s="9"/>
       <c r="I149" s="9"/>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150" s="9"/>
       <c r="B150" s="9"/>
       <c r="C150" s="9"/>
@@ -2318,7 +2329,7 @@
       <c r="H150" s="9"/>
       <c r="I150" s="9"/>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151" s="9"/>
       <c r="B151" s="9"/>
       <c r="C151" s="9"/>
@@ -2329,7 +2340,7 @@
       <c r="H151" s="9"/>
       <c r="I151" s="9"/>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152" s="9"/>
       <c r="B152" s="9"/>
       <c r="C152" s="9"/>
@@ -2340,7 +2351,7 @@
       <c r="H152" s="9"/>
       <c r="I152" s="9"/>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153" s="9"/>
       <c r="B153" s="9"/>
       <c r="C153" s="9"/>
@@ -2351,7 +2362,7 @@
       <c r="H153" s="9"/>
       <c r="I153" s="9"/>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154" s="9"/>
       <c r="B154" s="9"/>
       <c r="C154" s="9"/>
@@ -2362,7 +2373,7 @@
       <c r="H154" s="9"/>
       <c r="I154" s="9"/>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155" s="9"/>
       <c r="B155" s="9"/>
       <c r="C155" s="9"/>
@@ -2373,7 +2384,7 @@
       <c r="H155" s="9"/>
       <c r="I155" s="9"/>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156" s="9"/>
       <c r="B156" s="9"/>
       <c r="C156" s="9"/>
@@ -2384,7 +2395,7 @@
       <c r="H156" s="9"/>
       <c r="I156" s="9"/>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157" s="9"/>
       <c r="B157" s="9"/>
       <c r="C157" s="9"/>
@@ -2395,7 +2406,7 @@
       <c r="H157" s="9"/>
       <c r="I157" s="9"/>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158" s="9"/>
       <c r="B158" s="9"/>
       <c r="C158" s="9"/>
@@ -2406,7 +2417,7 @@
       <c r="H158" s="9"/>
       <c r="I158" s="9"/>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A159" s="9"/>
       <c r="B159" s="9"/>
       <c r="C159" s="9"/>
@@ -2417,7 +2428,7 @@
       <c r="H159" s="9"/>
       <c r="I159" s="9"/>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160" s="9"/>
       <c r="B160" s="9"/>
       <c r="C160" s="9"/>
@@ -2428,7 +2439,7 @@
       <c r="H160" s="9"/>
       <c r="I160" s="9"/>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A161" s="9"/>
       <c r="B161" s="9"/>
       <c r="C161" s="9"/>
@@ -2439,7 +2450,7 @@
       <c r="H161" s="9"/>
       <c r="I161" s="9"/>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A162" s="9"/>
       <c r="B162" s="9"/>
       <c r="C162" s="9"/>
@@ -2450,7 +2461,7 @@
       <c r="H162" s="9"/>
       <c r="I162" s="9"/>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A163" s="9"/>
       <c r="B163" s="9"/>
       <c r="C163" s="9"/>
@@ -2461,7 +2472,7 @@
       <c r="H163" s="9"/>
       <c r="I163" s="9"/>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164" s="9"/>
       <c r="B164" s="9"/>
       <c r="C164" s="9"/>
@@ -2472,7 +2483,7 @@
       <c r="H164" s="9"/>
       <c r="I164" s="9"/>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A165" s="9"/>
       <c r="B165" s="9"/>
       <c r="C165" s="9"/>
@@ -2483,7 +2494,7 @@
       <c r="H165" s="9"/>
       <c r="I165" s="9"/>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A166" s="9"/>
       <c r="B166" s="9"/>
       <c r="C166" s="9"/>
@@ -2494,7 +2505,7 @@
       <c r="H166" s="9"/>
       <c r="I166" s="9"/>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A167" s="9"/>
       <c r="B167" s="9"/>
       <c r="C167" s="9"/>
@@ -2505,7 +2516,7 @@
       <c r="H167" s="9"/>
       <c r="I167" s="9"/>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A168" s="9"/>
       <c r="B168" s="9"/>
       <c r="C168" s="9"/>
@@ -2516,7 +2527,7 @@
       <c r="H168" s="9"/>
       <c r="I168" s="9"/>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A169" s="9"/>
       <c r="B169" s="9"/>
       <c r="C169" s="9"/>
@@ -2527,7 +2538,7 @@
       <c r="H169" s="9"/>
       <c r="I169" s="9"/>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A170" s="9"/>
       <c r="B170" s="9"/>
       <c r="C170" s="9"/>
@@ -2538,7 +2549,7 @@
       <c r="H170" s="9"/>
       <c r="I170" s="9"/>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A171" s="9"/>
       <c r="B171" s="9"/>
       <c r="C171" s="9"/>
@@ -2549,7 +2560,7 @@
       <c r="H171" s="9"/>
       <c r="I171" s="9"/>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A172" s="9"/>
       <c r="B172" s="9"/>
       <c r="C172" s="9"/>
@@ -2560,7 +2571,7 @@
       <c r="H172" s="9"/>
       <c r="I172" s="9"/>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A173" s="9"/>
       <c r="B173" s="9"/>
       <c r="C173" s="9"/>
@@ -2571,7 +2582,7 @@
       <c r="H173" s="9"/>
       <c r="I173" s="9"/>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A174" s="9"/>
       <c r="B174" s="9"/>
       <c r="C174" s="9"/>
@@ -2582,7 +2593,7 @@
       <c r="H174" s="9"/>
       <c r="I174" s="9"/>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A175" s="9"/>
       <c r="B175" s="9"/>
       <c r="C175" s="9"/>
@@ -2593,7 +2604,7 @@
       <c r="H175" s="9"/>
       <c r="I175" s="9"/>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A176" s="9"/>
       <c r="B176" s="9"/>
       <c r="C176" s="9"/>
@@ -2604,7 +2615,7 @@
       <c r="H176" s="9"/>
       <c r="I176" s="9"/>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A177" s="9"/>
       <c r="B177" s="9"/>
       <c r="C177" s="9"/>
@@ -2615,7 +2626,7 @@
       <c r="H177" s="9"/>
       <c r="I177" s="9"/>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A178" s="9"/>
       <c r="B178" s="9"/>
       <c r="C178" s="9"/>
@@ -2626,7 +2637,7 @@
       <c r="H178" s="9"/>
       <c r="I178" s="9"/>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A179" s="9"/>
       <c r="B179" s="9"/>
       <c r="C179" s="9"/>
@@ -2637,7 +2648,7 @@
       <c r="H179" s="9"/>
       <c r="I179" s="9"/>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A180" s="9"/>
       <c r="B180" s="9"/>
       <c r="C180" s="9"/>
@@ -2648,7 +2659,7 @@
       <c r="H180" s="9"/>
       <c r="I180" s="9"/>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A181" s="9"/>
       <c r="B181" s="9"/>
       <c r="C181" s="9"/>
@@ -2659,7 +2670,7 @@
       <c r="H181" s="9"/>
       <c r="I181" s="9"/>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A182" s="9"/>
       <c r="B182" s="9"/>
       <c r="C182" s="9"/>
@@ -2670,7 +2681,7 @@
       <c r="H182" s="9"/>
       <c r="I182" s="9"/>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A183" s="9"/>
       <c r="B183" s="9"/>
       <c r="C183" s="9"/>
@@ -2681,7 +2692,7 @@
       <c r="H183" s="9"/>
       <c r="I183" s="9"/>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A184" s="9"/>
       <c r="B184" s="9"/>
       <c r="C184" s="9"/>
@@ -2692,7 +2703,7 @@
       <c r="H184" s="9"/>
       <c r="I184" s="9"/>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A185" s="9"/>
       <c r="B185" s="9"/>
       <c r="C185" s="9"/>
@@ -2703,7 +2714,7 @@
       <c r="H185" s="9"/>
       <c r="I185" s="9"/>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A186" s="9"/>
       <c r="B186" s="9"/>
       <c r="C186" s="9"/>
@@ -2714,7 +2725,7 @@
       <c r="H186" s="9"/>
       <c r="I186" s="9"/>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A187" s="9"/>
       <c r="B187" s="9"/>
       <c r="C187" s="9"/>
@@ -2725,7 +2736,7 @@
       <c r="H187" s="9"/>
       <c r="I187" s="9"/>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A188" s="9"/>
       <c r="B188" s="9"/>
       <c r="C188" s="9"/>
@@ -2736,7 +2747,7 @@
       <c r="H188" s="9"/>
       <c r="I188" s="9"/>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A189" s="9"/>
       <c r="B189" s="9"/>
       <c r="C189" s="9"/>
@@ -2747,7 +2758,7 @@
       <c r="H189" s="9"/>
       <c r="I189" s="9"/>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A190" s="9"/>
       <c r="B190" s="9"/>
       <c r="C190" s="9"/>
@@ -2758,7 +2769,7 @@
       <c r="H190" s="9"/>
       <c r="I190" s="9"/>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A191" s="9"/>
       <c r="B191" s="9"/>
       <c r="C191" s="9"/>
@@ -2769,7 +2780,7 @@
       <c r="H191" s="9"/>
       <c r="I191" s="9"/>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A192" s="9"/>
       <c r="B192" s="9"/>
       <c r="C192" s="9"/>
@@ -2780,7 +2791,7 @@
       <c r="H192" s="9"/>
       <c r="I192" s="9"/>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A193" s="9"/>
       <c r="B193" s="9"/>
       <c r="C193" s="9"/>
@@ -2791,7 +2802,7 @@
       <c r="H193" s="9"/>
       <c r="I193" s="9"/>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A194" s="9"/>
       <c r="B194" s="9"/>
       <c r="C194" s="9"/>
@@ -2802,7 +2813,7 @@
       <c r="H194" s="9"/>
       <c r="I194" s="9"/>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A195" s="9"/>
       <c r="B195" s="9"/>
       <c r="C195" s="9"/>
@@ -2813,7 +2824,7 @@
       <c r="H195" s="9"/>
       <c r="I195" s="9"/>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A196" s="9"/>
       <c r="B196" s="9"/>
       <c r="C196" s="9"/>
@@ -2824,7 +2835,7 @@
       <c r="H196" s="9"/>
       <c r="I196" s="9"/>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A197" s="9"/>
       <c r="B197" s="9"/>
       <c r="C197" s="9"/>
@@ -2835,7 +2846,7 @@
       <c r="H197" s="9"/>
       <c r="I197" s="9"/>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A198" s="9"/>
       <c r="B198" s="9"/>
       <c r="C198" s="9"/>
@@ -2846,7 +2857,7 @@
       <c r="H198" s="9"/>
       <c r="I198" s="9"/>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A199" s="9"/>
       <c r="B199" s="9"/>
       <c r="C199" s="9"/>
@@ -2857,7 +2868,7 @@
       <c r="H199" s="9"/>
       <c r="I199" s="9"/>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A200" s="9"/>
       <c r="B200" s="9"/>
       <c r="C200" s="9"/>
@@ -2868,7 +2879,7 @@
       <c r="H200" s="9"/>
       <c r="I200" s="9"/>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A201" s="9"/>
       <c r="B201" s="9"/>
       <c r="C201" s="9"/>
@@ -2879,7 +2890,7 @@
       <c r="H201" s="9"/>
       <c r="I201" s="9"/>
     </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A202" s="9"/>
       <c r="B202" s="9"/>
       <c r="C202" s="9"/>
@@ -2890,7 +2901,7 @@
       <c r="H202" s="9"/>
       <c r="I202" s="9"/>
     </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A203" s="9"/>
       <c r="B203" s="9"/>
       <c r="C203" s="9"/>
@@ -2901,7 +2912,7 @@
       <c r="H203" s="9"/>
       <c r="I203" s="9"/>
     </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A204" s="9"/>
       <c r="B204" s="9"/>
       <c r="C204" s="9"/>
@@ -2912,7 +2923,7 @@
       <c r="H204" s="9"/>
       <c r="I204" s="9"/>
     </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A205" s="9"/>
       <c r="B205" s="9"/>
       <c r="C205" s="9"/>
@@ -2923,7 +2934,7 @@
       <c r="H205" s="9"/>
       <c r="I205" s="9"/>
     </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A206" s="9"/>
       <c r="B206" s="9"/>
       <c r="C206" s="9"/>
@@ -2934,7 +2945,7 @@
       <c r="H206" s="9"/>
       <c r="I206" s="9"/>
     </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A207" s="9"/>
       <c r="B207" s="9"/>
       <c r="C207" s="9"/>
@@ -2945,7 +2956,7 @@
       <c r="H207" s="9"/>
       <c r="I207" s="9"/>
     </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A208" s="9"/>
       <c r="B208" s="9"/>
       <c r="C208" s="9"/>
@@ -2956,7 +2967,7 @@
       <c r="H208" s="9"/>
       <c r="I208" s="9"/>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A209" s="9"/>
       <c r="B209" s="9"/>
       <c r="C209" s="9"/>
@@ -2967,7 +2978,7 @@
       <c r="H209" s="9"/>
       <c r="I209" s="9"/>
     </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A210" s="9"/>
       <c r="B210" s="9"/>
       <c r="C210" s="9"/>
@@ -2978,7 +2989,7 @@
       <c r="H210" s="9"/>
       <c r="I210" s="9"/>
     </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A211" s="9"/>
       <c r="B211" s="9"/>
       <c r="C211" s="9"/>
@@ -2989,7 +3000,7 @@
       <c r="H211" s="9"/>
       <c r="I211" s="9"/>
     </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A212" s="9"/>
       <c r="B212" s="9"/>
       <c r="C212" s="9"/>
@@ -3000,7 +3011,7 @@
       <c r="H212" s="9"/>
       <c r="I212" s="9"/>
     </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A213" s="9"/>
       <c r="B213" s="9"/>
       <c r="C213" s="9"/>
@@ -3011,7 +3022,7 @@
       <c r="H213" s="9"/>
       <c r="I213" s="9"/>
     </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A214" s="9"/>
       <c r="B214" s="9"/>
       <c r="C214" s="9"/>
@@ -3022,7 +3033,7 @@
       <c r="H214" s="9"/>
       <c r="I214" s="9"/>
     </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A215" s="9"/>
       <c r="B215" s="9"/>
       <c r="C215" s="9"/>
@@ -3033,7 +3044,7 @@
       <c r="H215" s="9"/>
       <c r="I215" s="9"/>
     </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A216" s="9"/>
       <c r="B216" s="9"/>
       <c r="C216" s="9"/>
@@ -3044,7 +3055,7 @@
       <c r="H216" s="9"/>
       <c r="I216" s="9"/>
     </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A217" s="9"/>
       <c r="B217" s="9"/>
       <c r="C217" s="9"/>
@@ -3055,7 +3066,7 @@
       <c r="H217" s="9"/>
       <c r="I217" s="9"/>
     </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A218" s="9"/>
       <c r="B218" s="9"/>
       <c r="C218" s="9"/>
@@ -3066,7 +3077,7 @@
       <c r="H218" s="9"/>
       <c r="I218" s="9"/>
     </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A219" s="9"/>
       <c r="B219" s="9"/>
       <c r="C219" s="9"/>
@@ -3077,7 +3088,7 @@
       <c r="H219" s="9"/>
       <c r="I219" s="9"/>
     </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A220" s="9"/>
       <c r="B220" s="9"/>
       <c r="C220" s="9"/>
@@ -3088,7 +3099,7 @@
       <c r="H220" s="9"/>
       <c r="I220" s="9"/>
     </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A221" s="9"/>
       <c r="B221" s="9"/>
       <c r="C221" s="9"/>
@@ -3099,7 +3110,7 @@
       <c r="H221" s="9"/>
       <c r="I221" s="9"/>
     </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A222" s="9"/>
       <c r="B222" s="9"/>
       <c r="C222" s="9"/>
@@ -3110,7 +3121,7 @@
       <c r="H222" s="9"/>
       <c r="I222" s="9"/>
     </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A223" s="9"/>
       <c r="B223" s="9"/>
       <c r="C223" s="9"/>
@@ -3121,7 +3132,7 @@
       <c r="H223" s="9"/>
       <c r="I223" s="9"/>
     </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A224" s="9"/>
       <c r="B224" s="9"/>
       <c r="C224" s="9"/>
@@ -3132,7 +3143,7 @@
       <c r="H224" s="9"/>
       <c r="I224" s="9"/>
     </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A225" s="9"/>
       <c r="B225" s="9"/>
       <c r="C225" s="9"/>
@@ -3143,7 +3154,7 @@
       <c r="H225" s="9"/>
       <c r="I225" s="9"/>
     </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A226" s="9"/>
       <c r="B226" s="9"/>
       <c r="C226" s="9"/>
@@ -3154,7 +3165,7 @@
       <c r="H226" s="9"/>
       <c r="I226" s="9"/>
     </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A227" s="9"/>
       <c r="B227" s="9"/>
       <c r="C227" s="9"/>
@@ -3165,7 +3176,7 @@
       <c r="H227" s="9"/>
       <c r="I227" s="9"/>
     </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A228" s="9"/>
       <c r="B228" s="9"/>
       <c r="C228" s="9"/>
@@ -3176,7 +3187,7 @@
       <c r="H228" s="9"/>
       <c r="I228" s="9"/>
     </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A229" s="9"/>
       <c r="B229" s="9"/>
       <c r="C229" s="9"/>
@@ -3187,7 +3198,7 @@
       <c r="H229" s="9"/>
       <c r="I229" s="9"/>
     </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A230" s="9"/>
       <c r="B230" s="9"/>
       <c r="C230" s="9"/>
@@ -3198,7 +3209,7 @@
       <c r="H230" s="9"/>
       <c r="I230" s="9"/>
     </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A231" s="9"/>
       <c r="B231" s="9"/>
       <c r="C231" s="9"/>
@@ -3209,7 +3220,7 @@
       <c r="H231" s="9"/>
       <c r="I231" s="9"/>
     </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A232" s="9"/>
       <c r="B232" s="9"/>
       <c r="C232" s="9"/>
@@ -3220,7 +3231,7 @@
       <c r="H232" s="9"/>
       <c r="I232" s="9"/>
     </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A233" s="9"/>
       <c r="B233" s="9"/>
       <c r="C233" s="9"/>
@@ -3231,7 +3242,7 @@
       <c r="H233" s="9"/>
       <c r="I233" s="9"/>
     </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A234" s="9"/>
       <c r="B234" s="9"/>
       <c r="C234" s="9"/>
@@ -3242,7 +3253,7 @@
       <c r="H234" s="9"/>
       <c r="I234" s="9"/>
     </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A235" s="9"/>
       <c r="B235" s="9"/>
       <c r="C235" s="9"/>
@@ -3253,7 +3264,7 @@
       <c r="H235" s="9"/>
       <c r="I235" s="9"/>
     </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A236" s="9"/>
       <c r="B236" s="9"/>
       <c r="C236" s="9"/>
@@ -3264,7 +3275,7 @@
       <c r="H236" s="9"/>
       <c r="I236" s="9"/>
     </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A237" s="9"/>
       <c r="B237" s="9"/>
       <c r="C237" s="9"/>
@@ -3275,7 +3286,7 @@
       <c r="H237" s="9"/>
       <c r="I237" s="9"/>
     </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A238" s="9"/>
       <c r="B238" s="9"/>
       <c r="C238" s="9"/>
@@ -3286,7 +3297,7 @@
       <c r="H238" s="9"/>
       <c r="I238" s="9"/>
     </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A239" s="9"/>
       <c r="B239" s="9"/>
       <c r="C239" s="9"/>
@@ -3297,7 +3308,7 @@
       <c r="H239" s="9"/>
       <c r="I239" s="9"/>
     </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A240" s="9"/>
       <c r="B240" s="9"/>
       <c r="C240" s="9"/>
@@ -3308,7 +3319,7 @@
       <c r="H240" s="9"/>
       <c r="I240" s="9"/>
     </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A241" s="9"/>
       <c r="B241" s="9"/>
       <c r="C241" s="9"/>
@@ -3319,7 +3330,7 @@
       <c r="H241" s="9"/>
       <c r="I241" s="9"/>
     </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A242" s="9"/>
       <c r="B242" s="9"/>
       <c r="C242" s="9"/>
@@ -3330,7 +3341,7 @@
       <c r="H242" s="9"/>
       <c r="I242" s="9"/>
     </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A243" s="9"/>
       <c r="B243" s="9"/>
       <c r="C243" s="9"/>
@@ -3341,7 +3352,7 @@
       <c r="H243" s="9"/>
       <c r="I243" s="9"/>
     </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A244" s="9"/>
       <c r="B244" s="9"/>
       <c r="C244" s="9"/>
@@ -3352,7 +3363,7 @@
       <c r="H244" s="9"/>
       <c r="I244" s="9"/>
     </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A245" s="9"/>
       <c r="B245" s="9"/>
       <c r="C245" s="9"/>
@@ -3363,7 +3374,7 @@
       <c r="H245" s="9"/>
       <c r="I245" s="9"/>
     </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A246" s="9"/>
       <c r="B246" s="9"/>
       <c r="C246" s="9"/>
@@ -3374,7 +3385,7 @@
       <c r="H246" s="9"/>
       <c r="I246" s="9"/>
     </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A247" s="9"/>
       <c r="B247" s="9"/>
       <c r="C247" s="9"/>
@@ -3385,7 +3396,7 @@
       <c r="H247" s="9"/>
       <c r="I247" s="9"/>
     </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A248" s="9"/>
       <c r="B248" s="9"/>
       <c r="C248" s="9"/>
@@ -3396,7 +3407,7 @@
       <c r="H248" s="9"/>
       <c r="I248" s="9"/>
     </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A249" s="9"/>
       <c r="B249" s="9"/>
       <c r="C249" s="9"/>
@@ -3407,7 +3418,7 @@
       <c r="H249" s="9"/>
       <c r="I249" s="9"/>
     </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A250" s="9"/>
       <c r="B250" s="9"/>
       <c r="C250" s="9"/>
@@ -3418,7 +3429,7 @@
       <c r="H250" s="9"/>
       <c r="I250" s="9"/>
     </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A251" s="9"/>
       <c r="B251" s="9"/>
       <c r="C251" s="9"/>
@@ -3429,7 +3440,7 @@
       <c r="H251" s="9"/>
       <c r="I251" s="9"/>
     </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A252" s="9"/>
       <c r="B252" s="9"/>
       <c r="C252" s="9"/>
@@ -3440,7 +3451,7 @@
       <c r="H252" s="9"/>
       <c r="I252" s="9"/>
     </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A253" s="9"/>
       <c r="B253" s="9"/>
       <c r="C253" s="9"/>
@@ -3451,7 +3462,7 @@
       <c r="H253" s="9"/>
       <c r="I253" s="9"/>
     </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A254" s="9"/>
       <c r="B254" s="9"/>
       <c r="C254" s="9"/>
@@ -3462,7 +3473,7 @@
       <c r="H254" s="9"/>
       <c r="I254" s="9"/>
     </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A255" s="9"/>
       <c r="B255" s="9"/>
       <c r="C255" s="9"/>
@@ -3473,7 +3484,7 @@
       <c r="H255" s="9"/>
       <c r="I255" s="9"/>
     </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A256" s="9"/>
       <c r="B256" s="9"/>
       <c r="C256" s="9"/>
@@ -3484,7 +3495,7 @@
       <c r="H256" s="9"/>
       <c r="I256" s="9"/>
     </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A257" s="9"/>
       <c r="B257" s="9"/>
       <c r="C257" s="9"/>
@@ -3495,7 +3506,7 @@
       <c r="H257" s="9"/>
       <c r="I257" s="9"/>
     </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A258" s="9"/>
       <c r="B258" s="9"/>
       <c r="C258" s="9"/>
@@ -3506,7 +3517,7 @@
       <c r="H258" s="9"/>
       <c r="I258" s="9"/>
     </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A259" s="9"/>
       <c r="B259" s="9"/>
       <c r="C259" s="9"/>
@@ -3517,7 +3528,7 @@
       <c r="H259" s="9"/>
       <c r="I259" s="9"/>
     </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A260" s="9"/>
       <c r="B260" s="9"/>
       <c r="C260" s="9"/>
@@ -3528,7 +3539,7 @@
       <c r="H260" s="9"/>
       <c r="I260" s="9"/>
     </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A261" s="9"/>
       <c r="B261" s="9"/>
       <c r="C261" s="9"/>
@@ -3539,7 +3550,7 @@
       <c r="H261" s="9"/>
       <c r="I261" s="9"/>
     </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A262" s="9"/>
       <c r="B262" s="9"/>
       <c r="C262" s="9"/>
@@ -3550,7 +3561,7 @@
       <c r="H262" s="9"/>
       <c r="I262" s="9"/>
     </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A263" s="9"/>
       <c r="B263" s="9"/>
       <c r="C263" s="9"/>
@@ -3561,7 +3572,7 @@
       <c r="H263" s="9"/>
       <c r="I263" s="9"/>
     </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A264" s="9"/>
       <c r="B264" s="9"/>
       <c r="C264" s="9"/>
@@ -3572,7 +3583,7 @@
       <c r="H264" s="9"/>
       <c r="I264" s="9"/>
     </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A265" s="9"/>
       <c r="B265" s="9"/>
       <c r="C265" s="9"/>
@@ -3583,7 +3594,7 @@
       <c r="H265" s="9"/>
       <c r="I265" s="9"/>
     </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A266" s="9"/>
       <c r="B266" s="9"/>
       <c r="C266" s="9"/>
@@ -3594,7 +3605,7 @@
       <c r="H266" s="9"/>
       <c r="I266" s="9"/>
     </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A267" s="9"/>
       <c r="B267" s="9"/>
       <c r="C267" s="9"/>
@@ -3605,7 +3616,7 @@
       <c r="H267" s="9"/>
       <c r="I267" s="9"/>
     </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A268" s="9"/>
       <c r="B268" s="9"/>
       <c r="C268" s="9"/>
@@ -3616,7 +3627,7 @@
       <c r="H268" s="9"/>
       <c r="I268" s="9"/>
     </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A269" s="9"/>
       <c r="B269" s="9"/>
       <c r="C269" s="9"/>
@@ -3627,7 +3638,7 @@
       <c r="H269" s="9"/>
       <c r="I269" s="9"/>
     </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A270" s="9"/>
       <c r="B270" s="9"/>
       <c r="C270" s="9"/>
@@ -3638,7 +3649,7 @@
       <c r="H270" s="9"/>
       <c r="I270" s="9"/>
     </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A271" s="9"/>
       <c r="B271" s="9"/>
       <c r="C271" s="9"/>
@@ -3649,7 +3660,7 @@
       <c r="H271" s="9"/>
       <c r="I271" s="9"/>
     </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A272" s="9"/>
       <c r="B272" s="9"/>
       <c r="C272" s="9"/>
@@ -3660,7 +3671,7 @@
       <c r="H272" s="9"/>
       <c r="I272" s="9"/>
     </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A273" s="9"/>
       <c r="B273" s="9"/>
       <c r="C273" s="9"/>
@@ -3671,7 +3682,7 @@
       <c r="H273" s="9"/>
       <c r="I273" s="9"/>
     </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A274" s="9"/>
       <c r="B274" s="9"/>
       <c r="C274" s="9"/>
@@ -3682,7 +3693,7 @@
       <c r="H274" s="9"/>
       <c r="I274" s="9"/>
     </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A275" s="9"/>
       <c r="B275" s="9"/>
       <c r="C275" s="9"/>
@@ -3693,7 +3704,7 @@
       <c r="H275" s="9"/>
       <c r="I275" s="9"/>
     </row>
-    <row r="276" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A276" s="9"/>
       <c r="B276" s="9"/>
       <c r="C276" s="9"/>
@@ -3704,7 +3715,7 @@
       <c r="H276" s="9"/>
       <c r="I276" s="9"/>
     </row>
-    <row r="277" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A277" s="9"/>
       <c r="B277" s="9"/>
       <c r="C277" s="9"/>
@@ -3715,7 +3726,7 @@
       <c r="H277" s="9"/>
       <c r="I277" s="9"/>
     </row>
-    <row r="278" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A278" s="9"/>
       <c r="B278" s="9"/>
       <c r="C278" s="9"/>
@@ -3726,7 +3737,7 @@
       <c r="H278" s="9"/>
       <c r="I278" s="9"/>
     </row>
-    <row r="279" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A279" s="9"/>
       <c r="B279" s="9"/>
       <c r="C279" s="9"/>
@@ -3737,7 +3748,7 @@
       <c r="H279" s="9"/>
       <c r="I279" s="9"/>
     </row>
-    <row r="280" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A280" s="9"/>
       <c r="B280" s="9"/>
       <c r="C280" s="9"/>
@@ -3748,7 +3759,7 @@
       <c r="H280" s="9"/>
       <c r="I280" s="9"/>
     </row>
-    <row r="281" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A281" s="9"/>
       <c r="B281" s="9"/>
       <c r="C281" s="9"/>
@@ -3759,7 +3770,7 @@
       <c r="H281" s="9"/>
       <c r="I281" s="9"/>
     </row>
-    <row r="282" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A282" s="9"/>
       <c r="B282" s="9"/>
       <c r="C282" s="9"/>
@@ -3770,7 +3781,7 @@
       <c r="H282" s="9"/>
       <c r="I282" s="9"/>
     </row>
-    <row r="283" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A283" s="9"/>
       <c r="B283" s="9"/>
       <c r="C283" s="9"/>
@@ -3781,7 +3792,7 @@
       <c r="H283" s="9"/>
       <c r="I283" s="9"/>
     </row>
-    <row r="284" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A284" s="9"/>
       <c r="B284" s="9"/>
       <c r="C284" s="9"/>
@@ -3792,7 +3803,7 @@
       <c r="H284" s="9"/>
       <c r="I284" s="9"/>
     </row>
-    <row r="285" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A285" s="9"/>
       <c r="B285" s="9"/>
       <c r="C285" s="9"/>
@@ -3803,7 +3814,7 @@
       <c r="H285" s="9"/>
       <c r="I285" s="9"/>
     </row>
-    <row r="286" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A286" s="9"/>
       <c r="B286" s="9"/>
       <c r="C286" s="9"/>
@@ -3814,7 +3825,7 @@
       <c r="H286" s="9"/>
       <c r="I286" s="9"/>
     </row>
-    <row r="287" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A287" s="9"/>
       <c r="B287" s="9"/>
       <c r="C287" s="9"/>
@@ -3825,7 +3836,7 @@
       <c r="H287" s="9"/>
       <c r="I287" s="9"/>
     </row>
-    <row r="288" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A288" s="9"/>
       <c r="B288" s="9"/>
       <c r="C288" s="9"/>
@@ -3836,7 +3847,7 @@
       <c r="H288" s="9"/>
       <c r="I288" s="9"/>
     </row>
-    <row r="289" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A289" s="9"/>
       <c r="B289" s="9"/>
       <c r="C289" s="9"/>
@@ -3847,7 +3858,7 @@
       <c r="H289" s="9"/>
       <c r="I289" s="9"/>
     </row>
-    <row r="290" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A290" s="9"/>
       <c r="B290" s="9"/>
       <c r="C290" s="9"/>
@@ -3858,7 +3869,7 @@
       <c r="H290" s="9"/>
       <c r="I290" s="9"/>
     </row>
-    <row r="291" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A291" s="9"/>
       <c r="B291" s="9"/>
       <c r="C291" s="9"/>
@@ -3869,7 +3880,7 @@
       <c r="H291" s="9"/>
       <c r="I291" s="9"/>
     </row>
-    <row r="292" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A292" s="9"/>
       <c r="B292" s="9"/>
       <c r="C292" s="9"/>
@@ -3880,7 +3891,7 @@
       <c r="H292" s="9"/>
       <c r="I292" s="9"/>
     </row>
-    <row r="293" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A293" s="9"/>
       <c r="B293" s="9"/>
       <c r="C293" s="9"/>
@@ -3891,7 +3902,7 @@
       <c r="H293" s="9"/>
       <c r="I293" s="9"/>
     </row>
-    <row r="294" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A294" s="9"/>
       <c r="B294" s="9"/>
       <c r="C294" s="9"/>
@@ -3902,7 +3913,7 @@
       <c r="H294" s="9"/>
       <c r="I294" s="9"/>
     </row>
-    <row r="295" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A295" s="9"/>
       <c r="B295" s="9"/>
       <c r="C295" s="9"/>
@@ -3913,7 +3924,7 @@
       <c r="H295" s="9"/>
       <c r="I295" s="9"/>
     </row>
-    <row r="296" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A296" s="9"/>
       <c r="B296" s="9"/>
       <c r="C296" s="9"/>
@@ -3924,7 +3935,7 @@
       <c r="H296" s="9"/>
       <c r="I296" s="9"/>
     </row>
-    <row r="297" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A297" s="9"/>
       <c r="B297" s="9"/>
       <c r="C297" s="9"/>
@@ -3935,7 +3946,7 @@
       <c r="H297" s="9"/>
       <c r="I297" s="9"/>
     </row>
-    <row r="298" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A298" s="9"/>
       <c r="B298" s="9"/>
       <c r="C298" s="9"/>
@@ -3946,7 +3957,7 @@
       <c r="H298" s="9"/>
       <c r="I298" s="9"/>
     </row>
-    <row r="299" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A299" s="9"/>
       <c r="B299" s="9"/>
       <c r="C299" s="9"/>
@@ -3957,7 +3968,7 @@
       <c r="H299" s="9"/>
       <c r="I299" s="9"/>
     </row>
-    <row r="300" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A300" s="9"/>
       <c r="B300" s="9"/>
       <c r="C300" s="9"/>
@@ -3968,7 +3979,7 @@
       <c r="H300" s="9"/>
       <c r="I300" s="9"/>
     </row>
-    <row r="301" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A301" s="9"/>
       <c r="B301" s="9"/>
       <c r="C301" s="9"/>
@@ -3979,7 +3990,7 @@
       <c r="H301" s="9"/>
       <c r="I301" s="9"/>
     </row>
-    <row r="302" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A302" s="9"/>
       <c r="B302" s="9"/>
       <c r="C302" s="9"/>
@@ -3990,7 +4001,7 @@
       <c r="H302" s="9"/>
       <c r="I302" s="9"/>
     </row>
-    <row r="303" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A303" s="9"/>
       <c r="B303" s="9"/>
       <c r="C303" s="9"/>
@@ -4001,7 +4012,7 @@
       <c r="H303" s="9"/>
       <c r="I303" s="9"/>
     </row>
-    <row r="304" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A304" s="9"/>
       <c r="B304" s="9"/>
       <c r="C304" s="9"/>
@@ -4012,7 +4023,7 @@
       <c r="H304" s="9"/>
       <c r="I304" s="9"/>
     </row>
-    <row r="305" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A305" s="9"/>
       <c r="B305" s="9"/>
       <c r="C305" s="9"/>
@@ -4023,7 +4034,7 @@
       <c r="H305" s="9"/>
       <c r="I305" s="9"/>
     </row>
-    <row r="306" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A306" s="9"/>
       <c r="B306" s="9"/>
       <c r="C306" s="9"/>
@@ -4034,7 +4045,7 @@
       <c r="H306" s="9"/>
       <c r="I306" s="9"/>
     </row>
-    <row r="307" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A307" s="9"/>
       <c r="B307" s="9"/>
       <c r="C307" s="9"/>
@@ -4045,7 +4056,7 @@
       <c r="H307" s="9"/>
       <c r="I307" s="9"/>
     </row>
-    <row r="308" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A308" s="9"/>
       <c r="B308" s="9"/>
       <c r="C308" s="9"/>
@@ -4056,7 +4067,7 @@
       <c r="H308" s="9"/>
       <c r="I308" s="9"/>
     </row>
-    <row r="309" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A309" s="9"/>
       <c r="B309" s="9"/>
       <c r="C309" s="9"/>
@@ -4067,7 +4078,7 @@
       <c r="H309" s="9"/>
       <c r="I309" s="9"/>
     </row>
-    <row r="310" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A310" s="9"/>
       <c r="B310" s="9"/>
       <c r="C310" s="9"/>
@@ -4078,7 +4089,7 @@
       <c r="H310" s="9"/>
       <c r="I310" s="9"/>
     </row>
-    <row r="311" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A311" s="9"/>
       <c r="B311" s="9"/>
       <c r="C311" s="9"/>
@@ -4089,7 +4100,7 @@
       <c r="H311" s="9"/>
       <c r="I311" s="9"/>
     </row>
-    <row r="312" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A312" s="9"/>
       <c r="B312" s="9"/>
       <c r="C312" s="9"/>
@@ -4100,7 +4111,7 @@
       <c r="H312" s="9"/>
       <c r="I312" s="9"/>
     </row>
-    <row r="313" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A313" s="9"/>
       <c r="B313" s="9"/>
       <c r="C313" s="9"/>
@@ -4111,7 +4122,7 @@
       <c r="H313" s="9"/>
       <c r="I313" s="9"/>
     </row>
-    <row r="314" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A314" s="9"/>
       <c r="B314" s="9"/>
       <c r="C314" s="9"/>
@@ -4122,7 +4133,7 @@
       <c r="H314" s="9"/>
       <c r="I314" s="9"/>
     </row>
-    <row r="315" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A315" s="9"/>
       <c r="B315" s="9"/>
       <c r="C315" s="9"/>
@@ -4133,7 +4144,7 @@
       <c r="H315" s="9"/>
       <c r="I315" s="9"/>
     </row>
-    <row r="316" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A316" s="9"/>
       <c r="B316" s="9"/>
       <c r="C316" s="9"/>
@@ -4144,7 +4155,7 @@
       <c r="H316" s="9"/>
       <c r="I316" s="9"/>
     </row>
-    <row r="317" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A317" s="9"/>
       <c r="B317" s="9"/>
       <c r="C317" s="9"/>
@@ -4155,7 +4166,7 @@
       <c r="H317" s="9"/>
       <c r="I317" s="9"/>
     </row>
-    <row r="318" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A318" s="9"/>
       <c r="B318" s="9"/>
       <c r="C318" s="9"/>
@@ -4166,7 +4177,7 @@
       <c r="H318" s="9"/>
       <c r="I318" s="9"/>
     </row>
-    <row r="319" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A319" s="9"/>
       <c r="B319" s="9"/>
       <c r="C319" s="9"/>
@@ -4177,7 +4188,7 @@
       <c r="H319" s="9"/>
       <c r="I319" s="9"/>
     </row>
-    <row r="320" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A320" s="9"/>
       <c r="B320" s="9"/>
       <c r="C320" s="9"/>
@@ -4188,7 +4199,7 @@
       <c r="H320" s="9"/>
       <c r="I320" s="9"/>
     </row>
-    <row r="321" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A321" s="9"/>
       <c r="B321" s="9"/>
       <c r="C321" s="9"/>
@@ -4199,7 +4210,7 @@
       <c r="H321" s="9"/>
       <c r="I321" s="9"/>
     </row>
-    <row r="322" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A322" s="9"/>
       <c r="B322" s="9"/>
       <c r="C322" s="9"/>
@@ -4210,7 +4221,7 @@
       <c r="H322" s="9"/>
       <c r="I322" s="9"/>
     </row>
-    <row r="323" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A323" s="9"/>
       <c r="B323" s="9"/>
       <c r="C323" s="9"/>
@@ -4221,7 +4232,7 @@
       <c r="H323" s="9"/>
       <c r="I323" s="9"/>
     </row>
-    <row r="324" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A324" s="9"/>
       <c r="B324" s="9"/>
       <c r="C324" s="9"/>
@@ -4232,7 +4243,7 @@
       <c r="H324" s="9"/>
       <c r="I324" s="9"/>
     </row>
-    <row r="325" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A325" s="9"/>
       <c r="B325" s="9"/>
       <c r="C325" s="9"/>
@@ -4243,7 +4254,7 @@
       <c r="H325" s="9"/>
       <c r="I325" s="9"/>
     </row>
-    <row r="326" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A326" s="9"/>
       <c r="B326" s="9"/>
       <c r="C326" s="9"/>
@@ -4254,7 +4265,7 @@
       <c r="H326" s="9"/>
       <c r="I326" s="9"/>
     </row>
-    <row r="327" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A327" s="9"/>
       <c r="B327" s="9"/>
       <c r="C327" s="9"/>
@@ -4265,7 +4276,7 @@
       <c r="H327" s="9"/>
       <c r="I327" s="9"/>
     </row>
-    <row r="328" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A328" s="9"/>
       <c r="B328" s="9"/>
       <c r="C328" s="9"/>
@@ -4292,6 +4303,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100E3D40D7370BE704D9F987D37C7518305" ma:contentTypeVersion="14" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="713a4ab37a2269b86b211ad079bba34f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="33c8bdda-defa-435a-b09b-17c633094ed5" xmlns:ns4="5e78a4f3-a9b1-4fe1-9da0-d43cac8a1c9f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="799d028bd5d959863f471fdad4996989" ns3:_="" ns4:_="">
     <xsd:import namespace="33c8bdda-defa-435a-b09b-17c633094ed5"/>
@@ -4518,15 +4538,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -4536,6 +4547,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0F7F9947-D4DB-49D0-81FC-207E2ECAB2E1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FB6CAFB9-21A0-4331-A882-841105351FBC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4550,14 +4569,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0F7F9947-D4DB-49D0-81FC-207E2ECAB2E1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
